--- a/data/pca/factorExposure/factorExposure_2011-07-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>-0.02493351191442447</v>
+        <v>0.01880471756812273</v>
       </c>
       <c r="C2">
-        <v>0.00298996674526964</v>
+        <v>-0.0002361182415658806</v>
       </c>
       <c r="D2">
-        <v>0.05954182663837487</v>
+        <v>0.003289657659921809</v>
       </c>
       <c r="E2">
-        <v>0.02014524653407912</v>
+        <v>0.03815961469651924</v>
       </c>
       <c r="F2">
-        <v>-0.01351805882548378</v>
+        <v>-0.007446065861123879</v>
       </c>
       <c r="G2">
-        <v>0.04303747284749095</v>
+        <v>0.018369093562663</v>
       </c>
       <c r="H2">
-        <v>-0.02817240840103923</v>
+        <v>0.02544188178167169</v>
       </c>
       <c r="I2">
-        <v>-0.04859081338008169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.008390482215653677</v>
+      </c>
+      <c r="J2">
+        <v>-0.002551908835040162</v>
+      </c>
+      <c r="K2">
+        <v>0.1058786964095463</v>
+      </c>
+      <c r="L2">
+        <v>-0.03446174347344497</v>
+      </c>
+      <c r="M2">
+        <v>0.0760897342119727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>-0.06716721314600835</v>
+        <v>0.09962347025912792</v>
       </c>
       <c r="C4">
-        <v>-0.0566992845665441</v>
+        <v>0.07362758420264988</v>
       </c>
       <c r="D4">
-        <v>0.03846456358456841</v>
+        <v>0.02277839175457279</v>
       </c>
       <c r="E4">
-        <v>0.03764754623213998</v>
+        <v>0.04517428119553827</v>
       </c>
       <c r="F4">
-        <v>0.03887463813349054</v>
+        <v>-0.09964909136329053</v>
       </c>
       <c r="G4">
-        <v>0.002154710275983338</v>
+        <v>0.01184329517512101</v>
       </c>
       <c r="H4">
-        <v>0.01243627859326383</v>
+        <v>-0.06561328617673438</v>
       </c>
       <c r="I4">
-        <v>-0.001251336178297707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.04117037979914839</v>
+      </c>
+      <c r="J4">
+        <v>-0.04885156706857152</v>
+      </c>
+      <c r="K4">
+        <v>-0.02213699596776359</v>
+      </c>
+      <c r="L4">
+        <v>-0.03890395757372453</v>
+      </c>
+      <c r="M4">
+        <v>0.009122344399245726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>-0.1265799130989953</v>
+        <v>0.1295370820084968</v>
       </c>
       <c r="C6">
-        <v>-0.03589746126287029</v>
+        <v>0.04908260227199385</v>
       </c>
       <c r="D6">
-        <v>0.07913384960441405</v>
+        <v>0.001134618858878556</v>
       </c>
       <c r="E6">
-        <v>0.08690813953116169</v>
+        <v>0.03138241159842738</v>
       </c>
       <c r="F6">
-        <v>0.03319484167607693</v>
+        <v>-0.03162734815009358</v>
       </c>
       <c r="G6">
-        <v>-0.1013384604973516</v>
+        <v>-0.1722957054118911</v>
       </c>
       <c r="H6">
-        <v>-0.1109853175418651</v>
+        <v>-0.04928324845954137</v>
       </c>
       <c r="I6">
-        <v>0.2588876866472145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.07201314933219759</v>
+      </c>
+      <c r="J6">
+        <v>-0.4330082144748325</v>
+      </c>
+      <c r="K6">
+        <v>-0.03728814040961519</v>
+      </c>
+      <c r="L6">
+        <v>0.04805139585203964</v>
+      </c>
+      <c r="M6">
+        <v>-0.09917692626915589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>-0.06504988746390451</v>
+        <v>0.06967221023313666</v>
       </c>
       <c r="C7">
-        <v>-0.0506369590743757</v>
+        <v>0.07506468907453469</v>
       </c>
       <c r="D7">
-        <v>0.05944261281267177</v>
+        <v>0.003008149992935545</v>
       </c>
       <c r="E7">
-        <v>0.02948091981932444</v>
+        <v>0.04561708651377598</v>
       </c>
       <c r="F7">
-        <v>0.02608963664987092</v>
+        <v>-0.01837715593417003</v>
       </c>
       <c r="G7">
-        <v>-0.04083305851899243</v>
+        <v>0.005916326835962545</v>
       </c>
       <c r="H7">
-        <v>-0.001555282914686675</v>
+        <v>-0.06233761833063068</v>
       </c>
       <c r="I7">
-        <v>-0.04840617300924134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.02219416236759226</v>
+      </c>
+      <c r="J7">
+        <v>0.05053588428596438</v>
+      </c>
+      <c r="K7">
+        <v>-0.06073808666117484</v>
+      </c>
+      <c r="L7">
+        <v>-0.03510388340399385</v>
+      </c>
+      <c r="M7">
+        <v>0.008091822440920049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-0.02222598274780295</v>
+        <v>0.03478701621678276</v>
       </c>
       <c r="C8">
-        <v>-0.0177780229599471</v>
+        <v>0.01031571297404742</v>
       </c>
       <c r="D8">
-        <v>0.04069672927006752</v>
+        <v>0.01768785834022707</v>
       </c>
       <c r="E8">
-        <v>0.063673814207932</v>
+        <v>0.05197657358568775</v>
       </c>
       <c r="F8">
-        <v>-0.02122907707312055</v>
+        <v>-0.1013058659459491</v>
       </c>
       <c r="G8">
-        <v>0.004365328860287797</v>
+        <v>0.001523994609433409</v>
       </c>
       <c r="H8">
-        <v>-0.03369583592410282</v>
+        <v>-0.05664650376210462</v>
       </c>
       <c r="I8">
-        <v>-0.04219379528736072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.03469160723674685</v>
+      </c>
+      <c r="J8">
+        <v>-0.04064582636631676</v>
+      </c>
+      <c r="K8">
+        <v>-0.02624263639907362</v>
+      </c>
+      <c r="L8">
+        <v>-0.08037215444617604</v>
+      </c>
+      <c r="M8">
+        <v>-0.001965910546335529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>-0.06814904301975702</v>
+        <v>0.08387764276013789</v>
       </c>
       <c r="C9">
-        <v>-0.07577584283017746</v>
+        <v>0.06822010682033081</v>
       </c>
       <c r="D9">
-        <v>0.04359244447110897</v>
+        <v>-2.06471501875239e-05</v>
       </c>
       <c r="E9">
-        <v>0.02136609198203252</v>
+        <v>0.03075097439310343</v>
       </c>
       <c r="F9">
-        <v>0.02351538822913321</v>
+        <v>-0.09873304467597444</v>
       </c>
       <c r="G9">
-        <v>0.009383650085460778</v>
+        <v>0.01372514079441003</v>
       </c>
       <c r="H9">
-        <v>0.01292816387487748</v>
+        <v>-0.07494534911289404</v>
       </c>
       <c r="I9">
-        <v>-0.0158260127058205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.005507077674560708</v>
+      </c>
+      <c r="J9">
+        <v>-0.02493909891499197</v>
+      </c>
+      <c r="K9">
+        <v>-0.01488736600755342</v>
+      </c>
+      <c r="L9">
+        <v>-0.02355553921210167</v>
+      </c>
+      <c r="M9">
+        <v>-0.004296438562308678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>-0.06364288608178192</v>
+        <v>0.1073358302523041</v>
       </c>
       <c r="C10">
-        <v>0.1419081627789341</v>
+        <v>-0.1712272247168255</v>
       </c>
       <c r="D10">
-        <v>0.05152959775859914</v>
+        <v>0.00910087434287692</v>
       </c>
       <c r="E10">
-        <v>0.0297854231723426</v>
+        <v>0.04314596723695602</v>
       </c>
       <c r="F10">
-        <v>0.002029798553620015</v>
+        <v>0.01697328843212008</v>
       </c>
       <c r="G10">
-        <v>-0.04263210602942056</v>
+        <v>-0.005265731679817722</v>
       </c>
       <c r="H10">
-        <v>-0.04542389077071004</v>
+        <v>0.002400271896050812</v>
       </c>
       <c r="I10">
-        <v>0.01486140902542096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.04595674009728226</v>
+      </c>
+      <c r="J10">
+        <v>0.05645631038835174</v>
+      </c>
+      <c r="K10">
+        <v>-0.00699612275500755</v>
+      </c>
+      <c r="L10">
+        <v>0.02097133119444558</v>
+      </c>
+      <c r="M10">
+        <v>-0.04371214952734157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>-0.06309727774127837</v>
+        <v>0.06784024317882713</v>
       </c>
       <c r="C11">
-        <v>-0.08950021432194141</v>
+        <v>0.07188096626596917</v>
       </c>
       <c r="D11">
-        <v>0.03991900668874121</v>
+        <v>-0.0324878492414311</v>
       </c>
       <c r="E11">
-        <v>-0.002823643668602011</v>
+        <v>0.02102899079559111</v>
       </c>
       <c r="F11">
-        <v>-0.02156895187490196</v>
+        <v>-0.1023391505194944</v>
       </c>
       <c r="G11">
-        <v>0.03102154710320162</v>
+        <v>0.01978610456328337</v>
       </c>
       <c r="H11">
-        <v>0.0115339471641916</v>
+        <v>-0.05899955006972808</v>
       </c>
       <c r="I11">
-        <v>-0.07379300925074378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.02308220400235445</v>
+      </c>
+      <c r="J11">
+        <v>0.08030318705439837</v>
+      </c>
+      <c r="K11">
+        <v>0.03814612166629395</v>
+      </c>
+      <c r="L11">
+        <v>0.01516030000302614</v>
+      </c>
+      <c r="M11">
+        <v>-0.04602795153513816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>-0.05730224084563443</v>
+        <v>0.06962280879293599</v>
       </c>
       <c r="C12">
-        <v>-0.05641482088694574</v>
+        <v>0.0634617744596199</v>
       </c>
       <c r="D12">
-        <v>0.01727246376385717</v>
+        <v>-0.03035253907614914</v>
       </c>
       <c r="E12">
-        <v>0.00803119973399663</v>
+        <v>0.01450913420993018</v>
       </c>
       <c r="F12">
-        <v>0.01432336362043329</v>
+        <v>-0.1123946049561509</v>
       </c>
       <c r="G12">
-        <v>-0.01302908860755739</v>
+        <v>0.009557226926118911</v>
       </c>
       <c r="H12">
-        <v>0.01793644892540038</v>
+        <v>-0.07213336865789485</v>
       </c>
       <c r="I12">
-        <v>-0.07506346859866381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.01008330923635477</v>
+      </c>
+      <c r="J12">
+        <v>0.06790927060470917</v>
+      </c>
+      <c r="K12">
+        <v>0.05192129639492769</v>
+      </c>
+      <c r="L12">
+        <v>-0.03590399063054293</v>
+      </c>
+      <c r="M12">
+        <v>-0.08310363475168625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>-0.05192900572312831</v>
+        <v>0.05007573996400708</v>
       </c>
       <c r="C13">
-        <v>-0.01771269676281943</v>
+        <v>0.0345180329571135</v>
       </c>
       <c r="D13">
-        <v>0.01411379554055698</v>
+        <v>0.02041641757801264</v>
       </c>
       <c r="E13">
-        <v>0.01487120165125879</v>
+        <v>0.01465372565868308</v>
       </c>
       <c r="F13">
-        <v>-0.0007739201384438947</v>
+        <v>-0.04118142384667481</v>
       </c>
       <c r="G13">
-        <v>0.04917300987677867</v>
+        <v>0.03350266768935465</v>
       </c>
       <c r="H13">
-        <v>0.05813800508622324</v>
+        <v>-0.03279506785191113</v>
       </c>
       <c r="I13">
-        <v>-0.0008653957598725428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.02355369945579014</v>
+      </c>
+      <c r="J13">
+        <v>0.003049762700821872</v>
+      </c>
+      <c r="K13">
+        <v>-0.06316287435006743</v>
+      </c>
+      <c r="L13">
+        <v>-0.06069546126565964</v>
+      </c>
+      <c r="M13">
+        <v>0.003572205606740323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>-0.04153110875460663</v>
+        <v>0.04504612685468473</v>
       </c>
       <c r="C14">
-        <v>-0.02092769703820446</v>
+        <v>0.02811122320273686</v>
       </c>
       <c r="D14">
-        <v>0.01967366748622595</v>
+        <v>-0.008265520536303745</v>
       </c>
       <c r="E14">
-        <v>0.00426520492344206</v>
+        <v>0.01534323986842545</v>
       </c>
       <c r="F14">
-        <v>0.04943300450541388</v>
+        <v>-0.04916266503867028</v>
       </c>
       <c r="G14">
-        <v>-0.01297579834151153</v>
+        <v>0.04738019446759209</v>
       </c>
       <c r="H14">
-        <v>-0.04445871364933298</v>
+        <v>-0.05238460334506675</v>
       </c>
       <c r="I14">
-        <v>0.03830499588194575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.01934278183603635</v>
+      </c>
+      <c r="J14">
+        <v>-0.03898631369999704</v>
+      </c>
+      <c r="K14">
+        <v>-0.04911467363522574</v>
+      </c>
+      <c r="L14">
+        <v>-0.01611228188625873</v>
+      </c>
+      <c r="M14">
+        <v>0.01215779402366512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>-0.03583031350160939</v>
+        <v>0.03272862714565297</v>
       </c>
       <c r="C15">
-        <v>0.002580632030562627</v>
+        <v>0.01069179264632119</v>
       </c>
       <c r="D15">
-        <v>-0.004338285650304592</v>
+        <v>0.05739935873297046</v>
       </c>
       <c r="E15">
-        <v>0.02820958400389173</v>
+        <v>0.004361885138959329</v>
       </c>
       <c r="F15">
-        <v>0.02622419730033404</v>
+        <v>-0.0008261696713409378</v>
       </c>
       <c r="G15">
-        <v>0.002270168575053318</v>
+        <v>-0.0183046302087415</v>
       </c>
       <c r="H15">
-        <v>0.01643112651146757</v>
+        <v>-0.03077676548509303</v>
       </c>
       <c r="I15">
-        <v>0.01414879683239765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.04965167606515841</v>
+      </c>
+      <c r="J15">
+        <v>-0.0439521582153471</v>
+      </c>
+      <c r="K15">
+        <v>-0.05413514463133497</v>
+      </c>
+      <c r="L15">
+        <v>-0.005747881030314519</v>
+      </c>
+      <c r="M15">
+        <v>-0.002894404174545053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>-0.04720954700722819</v>
+        <v>0.070078892369638</v>
       </c>
       <c r="C16">
-        <v>-0.08378183952132827</v>
+        <v>0.07845416209087759</v>
       </c>
       <c r="D16">
-        <v>0.02759739809183354</v>
+        <v>-0.02065320481047151</v>
       </c>
       <c r="E16">
-        <v>0.01988245709217007</v>
+        <v>0.02350057588420573</v>
       </c>
       <c r="F16">
-        <v>0.02776561484688533</v>
+        <v>-0.1017947016284669</v>
       </c>
       <c r="G16">
-        <v>0.02509700483803103</v>
+        <v>0.02579888098432227</v>
       </c>
       <c r="H16">
-        <v>0.00081725326916409</v>
+        <v>-0.0784973771723024</v>
       </c>
       <c r="I16">
-        <v>-0.09030608073959633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.02198275948559785</v>
+      </c>
+      <c r="J16">
+        <v>0.0744049052249052</v>
+      </c>
+      <c r="K16">
+        <v>0.02482263207812007</v>
+      </c>
+      <c r="L16">
+        <v>-0.01384952989196291</v>
+      </c>
+      <c r="M16">
+        <v>-0.02847183888779565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>-0.03815089669603634</v>
+        <v>0.04219364484934796</v>
       </c>
       <c r="C20">
-        <v>-0.04150501779404826</v>
+        <v>0.03147449711330125</v>
       </c>
       <c r="D20">
-        <v>0.02066469380543707</v>
+        <v>0.02203404376368361</v>
       </c>
       <c r="E20">
-        <v>0.01208438178708519</v>
+        <v>0.02190480732911147</v>
       </c>
       <c r="F20">
-        <v>0.03067084257228397</v>
+        <v>-0.04816250735151422</v>
       </c>
       <c r="G20">
-        <v>0.023582767379243</v>
+        <v>0.0303056294360843</v>
       </c>
       <c r="H20">
-        <v>0.0117853793997157</v>
+        <v>-0.06298260225930395</v>
       </c>
       <c r="I20">
-        <v>-0.03009130568921214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.002036098898883724</v>
+      </c>
+      <c r="J20">
+        <v>0.001155913111354956</v>
+      </c>
+      <c r="K20">
+        <v>-0.01428660143162537</v>
+      </c>
+      <c r="L20">
+        <v>-0.06758500161152103</v>
+      </c>
+      <c r="M20">
+        <v>-0.02617471904772355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>-0.008215855715385901</v>
+        <v>0.02440071687512958</v>
       </c>
       <c r="C21">
-        <v>-0.001724547411526477</v>
+        <v>0.01255209765769769</v>
       </c>
       <c r="D21">
-        <v>-0.001634350265089252</v>
+        <v>0.01697619896833489</v>
       </c>
       <c r="E21">
-        <v>0.08663052596189857</v>
+        <v>0.01384263035776128</v>
       </c>
       <c r="F21">
-        <v>-0.03370933330043738</v>
+        <v>-0.05655974159640577</v>
       </c>
       <c r="G21">
-        <v>-0.07818112867483466</v>
+        <v>-0.09533052599899262</v>
       </c>
       <c r="H21">
-        <v>0.02984427219944229</v>
+        <v>-0.04516595626725621</v>
       </c>
       <c r="I21">
-        <v>0.05296940328750885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.002569768777682818</v>
+      </c>
+      <c r="J21">
+        <v>-0.01194057452590258</v>
+      </c>
+      <c r="K21">
+        <v>-0.1183527198187279</v>
+      </c>
+      <c r="L21">
+        <v>0.01636553807845313</v>
+      </c>
+      <c r="M21">
+        <v>-0.07961234451230501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>-0.02812673594954413</v>
+        <v>0.04261530905821862</v>
       </c>
       <c r="C22">
-        <v>-0.05753493605625293</v>
+        <v>0.03392946130146347</v>
       </c>
       <c r="D22">
-        <v>-0.09245388327612244</v>
+        <v>0.6562450414360488</v>
       </c>
       <c r="E22">
-        <v>0.4687646958759035</v>
+        <v>0.05690622167788126</v>
       </c>
       <c r="F22">
-        <v>0.1890439545180674</v>
+        <v>0.08079499274306828</v>
       </c>
       <c r="G22">
-        <v>0.02810422265960396</v>
+        <v>0.02693320962253761</v>
       </c>
       <c r="H22">
-        <v>0.2799680700376232</v>
+        <v>0.04562578293998762</v>
       </c>
       <c r="I22">
-        <v>-0.02625389371453515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.133886062674541</v>
+      </c>
+      <c r="J22">
+        <v>0.0448354998993078</v>
+      </c>
+      <c r="K22">
+        <v>-0.03919513574398625</v>
+      </c>
+      <c r="L22">
+        <v>0.03309615387743753</v>
+      </c>
+      <c r="M22">
+        <v>0.03297924631143934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>-0.02903619252626803</v>
+        <v>0.04333267766692662</v>
       </c>
       <c r="C23">
-        <v>-0.0563300553314489</v>
+        <v>0.03417708099619896</v>
       </c>
       <c r="D23">
-        <v>-0.091915197077164</v>
+        <v>0.6578624215609199</v>
       </c>
       <c r="E23">
-        <v>0.4702772932341916</v>
+        <v>0.05800541456667188</v>
       </c>
       <c r="F23">
-        <v>0.1859428232228351</v>
+        <v>0.07612403474883808</v>
       </c>
       <c r="G23">
-        <v>0.02771313417077554</v>
+        <v>0.02710779009957644</v>
       </c>
       <c r="H23">
-        <v>0.2764983877801425</v>
+        <v>0.04670843461362777</v>
       </c>
       <c r="I23">
-        <v>-0.02507050353976297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.133974011465929</v>
+      </c>
+      <c r="J23">
+        <v>0.03952307261235736</v>
+      </c>
+      <c r="K23">
+        <v>-0.03602521547215792</v>
+      </c>
+      <c r="L23">
+        <v>0.03447163432353848</v>
+      </c>
+      <c r="M23">
+        <v>0.03380535629108058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>-0.06734674736058678</v>
+        <v>0.07553816759189931</v>
       </c>
       <c r="C24">
-        <v>-0.0799482056628687</v>
+        <v>0.07603814995595616</v>
       </c>
       <c r="D24">
-        <v>0.04657300300902155</v>
+        <v>-0.01805773653175584</v>
       </c>
       <c r="E24">
-        <v>0.03117084023997635</v>
+        <v>0.02735588678203247</v>
       </c>
       <c r="F24">
-        <v>-0.009324651673755483</v>
+        <v>-0.1082353470169241</v>
       </c>
       <c r="G24">
-        <v>0.01731115201848204</v>
+        <v>0.01218946647734953</v>
       </c>
       <c r="H24">
-        <v>-0.0003524747498513382</v>
+        <v>-0.06461830178389801</v>
       </c>
       <c r="I24">
-        <v>-0.05412878977926788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.03077826427590329</v>
+      </c>
+      <c r="J24">
+        <v>0.0553997018817917</v>
+      </c>
+      <c r="K24">
+        <v>0.03723132926133985</v>
+      </c>
+      <c r="L24">
+        <v>9.73129090084366e-05</v>
+      </c>
+      <c r="M24">
+        <v>-0.05781767898135766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>-0.05949544957982845</v>
+        <v>0.07202927587714517</v>
       </c>
       <c r="C25">
-        <v>-0.0432966901364617</v>
+        <v>0.04989335858925106</v>
       </c>
       <c r="D25">
-        <v>0.04157295497192544</v>
+        <v>-0.03104464285649172</v>
       </c>
       <c r="E25">
-        <v>0.03395460889626122</v>
+        <v>0.02753893231889609</v>
       </c>
       <c r="F25">
-        <v>0.008522216203696583</v>
+        <v>-0.1103226494018565</v>
       </c>
       <c r="G25">
-        <v>0.03126629047706824</v>
+        <v>0.03281153956708934</v>
       </c>
       <c r="H25">
-        <v>-0.02663543174111947</v>
+        <v>-0.07718291500749888</v>
       </c>
       <c r="I25">
-        <v>-0.03414661720420575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.03817969667247683</v>
+      </c>
+      <c r="J25">
+        <v>0.05212964779052286</v>
+      </c>
+      <c r="K25">
+        <v>0.06644021086901415</v>
+      </c>
+      <c r="L25">
+        <v>-0.002222747932541943</v>
+      </c>
+      <c r="M25">
+        <v>-0.04255990394888504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>-0.03541642280037689</v>
+        <v>0.03740087628476244</v>
       </c>
       <c r="C26">
-        <v>-0.0198483764343632</v>
+        <v>0.0231353255431606</v>
       </c>
       <c r="D26">
-        <v>0.0412915078681609</v>
+        <v>0.01459222290461839</v>
       </c>
       <c r="E26">
-        <v>-0.002630453567224266</v>
+        <v>0.003745476656657521</v>
       </c>
       <c r="F26">
-        <v>0.04182595750717899</v>
+        <v>-0.03986980798323804</v>
       </c>
       <c r="G26">
-        <v>-0.004641980216171959</v>
+        <v>0.01255161523605072</v>
       </c>
       <c r="H26">
-        <v>0.03285844566759372</v>
+        <v>-0.03785989680029934</v>
       </c>
       <c r="I26">
-        <v>-0.01985179251528784</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.04687698832801702</v>
+      </c>
+      <c r="J26">
+        <v>-0.01153391519302334</v>
+      </c>
+      <c r="K26">
+        <v>-0.1420111010522714</v>
+      </c>
+      <c r="L26">
+        <v>-0.01622808241833378</v>
+      </c>
+      <c r="M26">
+        <v>0.006015855073506981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>-0.1197079041011704</v>
+        <v>0.1397605563319078</v>
       </c>
       <c r="C28">
-        <v>0.291796558259727</v>
+        <v>-0.2868658492343275</v>
       </c>
       <c r="D28">
-        <v>0.03107110221087722</v>
+        <v>-0.002542590194461652</v>
       </c>
       <c r="E28">
-        <v>-0.0007925687423415677</v>
+        <v>0.02667631817058855</v>
       </c>
       <c r="F28">
-        <v>0.01753464550172543</v>
+        <v>-0.0004031211492040802</v>
       </c>
       <c r="G28">
-        <v>-0.07030957898243638</v>
+        <v>-0.02470190742620496</v>
       </c>
       <c r="H28">
-        <v>-0.003772922515282647</v>
+        <v>0.004939735919870273</v>
       </c>
       <c r="I28">
-        <v>-0.07326758480941648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.02049263388896612</v>
+      </c>
+      <c r="J28">
+        <v>0.002693869620433238</v>
+      </c>
+      <c r="K28">
+        <v>-0.03539824482861857</v>
+      </c>
+      <c r="L28">
+        <v>-0.01251252136818112</v>
+      </c>
+      <c r="M28">
+        <v>0.02044889002660687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>-0.04576318830515249</v>
+        <v>0.04451459404987877</v>
       </c>
       <c r="C29">
-        <v>-0.009576174504450519</v>
+        <v>0.02265301941213615</v>
       </c>
       <c r="D29">
-        <v>0.007528637400148545</v>
+        <v>-0.0004786340488544898</v>
       </c>
       <c r="E29">
-        <v>0.0296287174204315</v>
+        <v>0.01755658836150052</v>
       </c>
       <c r="F29">
-        <v>0.03832048501222498</v>
+        <v>-0.04749806344056513</v>
       </c>
       <c r="G29">
-        <v>0.008289296867568531</v>
+        <v>0.05802288408326308</v>
       </c>
       <c r="H29">
-        <v>-0.02019232342852232</v>
+        <v>-0.04079684161069343</v>
       </c>
       <c r="I29">
-        <v>-0.0003880941576296063</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.0001831755993340467</v>
+      </c>
+      <c r="J29">
+        <v>-0.0286303966342323</v>
+      </c>
+      <c r="K29">
+        <v>-0.03645050690131933</v>
+      </c>
+      <c r="L29">
+        <v>-0.01999492986087694</v>
+      </c>
+      <c r="M29">
+        <v>0.01030645892584215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>-0.1186294578778117</v>
+        <v>0.09956729289686804</v>
       </c>
       <c r="C30">
-        <v>-0.07440122542308826</v>
+        <v>0.06777152708540317</v>
       </c>
       <c r="D30">
-        <v>0.0816868465526901</v>
+        <v>-0.002104678659521877</v>
       </c>
       <c r="E30">
-        <v>0.04406707929950264</v>
+        <v>0.04475204253135636</v>
       </c>
       <c r="F30">
-        <v>0.03759757247992135</v>
+        <v>-0.158408534934007</v>
       </c>
       <c r="G30">
-        <v>-0.0262144328479276</v>
+        <v>0.009708364793147293</v>
       </c>
       <c r="H30">
-        <v>0.0005403354770351256</v>
+        <v>-0.1275617465057508</v>
       </c>
       <c r="I30">
-        <v>-0.07531103687446483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.1893685598213213</v>
+      </c>
+      <c r="J30">
+        <v>0.01493025329968735</v>
+      </c>
+      <c r="K30">
+        <v>-0.2425006649825084</v>
+      </c>
+      <c r="L30">
+        <v>-0.2732941614210758</v>
+      </c>
+      <c r="M30">
+        <v>0.1227615709608675</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>-0.04795668465743772</v>
+        <v>0.03521034074043999</v>
       </c>
       <c r="C31">
-        <v>-0.02639922472115844</v>
+        <v>0.04506367015173837</v>
       </c>
       <c r="D31">
-        <v>0.006880707127469412</v>
+        <v>0.005379552763949825</v>
       </c>
       <c r="E31">
-        <v>-0.008457522300084955</v>
+        <v>-0.004943199730979755</v>
       </c>
       <c r="F31">
-        <v>0.03518991961660482</v>
+        <v>-0.01401940843973108</v>
       </c>
       <c r="G31">
-        <v>0.01884283350788087</v>
+        <v>0.04859707175376213</v>
       </c>
       <c r="H31">
-        <v>0.03540324192300715</v>
+        <v>-0.03163322895814797</v>
       </c>
       <c r="I31">
-        <v>0.01252247207252645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.03035342128463399</v>
+      </c>
+      <c r="J31">
+        <v>-0.009874378487009715</v>
+      </c>
+      <c r="K31">
+        <v>0.01187054399651181</v>
+      </c>
+      <c r="L31">
+        <v>-0.03421724962438654</v>
+      </c>
+      <c r="M31">
+        <v>-0.01408903498768681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>-0.02399224090734328</v>
+        <v>0.04885525977578927</v>
       </c>
       <c r="C32">
-        <v>0.001464488310411344</v>
+        <v>-0.002507946908525153</v>
       </c>
       <c r="D32">
-        <v>-0.04165411501320473</v>
+        <v>0.00289500188608892</v>
       </c>
       <c r="E32">
-        <v>0.08025320897989341</v>
+        <v>-0.005042371826278148</v>
       </c>
       <c r="F32">
-        <v>0.002984576638615086</v>
+        <v>-0.08957212570820301</v>
       </c>
       <c r="G32">
-        <v>0.0412774358699598</v>
+        <v>0.002155246663676266</v>
       </c>
       <c r="H32">
-        <v>0.05660558665257538</v>
+        <v>-0.006596351116701401</v>
       </c>
       <c r="I32">
-        <v>-0.07851102232639288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.08002118637119914</v>
+      </c>
+      <c r="J32">
+        <v>0.03083541932092838</v>
+      </c>
+      <c r="K32">
+        <v>-0.03786713061736656</v>
+      </c>
+      <c r="L32">
+        <v>-0.07812286386466452</v>
+      </c>
+      <c r="M32">
+        <v>0.1045310877112596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>-0.09784199268159639</v>
+        <v>0.09590251781035322</v>
       </c>
       <c r="C33">
-        <v>-0.06191279392058242</v>
+        <v>0.06598059048259347</v>
       </c>
       <c r="D33">
-        <v>0.01114418101432352</v>
+        <v>-0.00907836815501588</v>
       </c>
       <c r="E33">
-        <v>-1.767490226238415e-05</v>
+        <v>-0.01682525309057272</v>
       </c>
       <c r="F33">
-        <v>0.03174708294426871</v>
+        <v>-0.06409552972132296</v>
       </c>
       <c r="G33">
-        <v>0.0320255996531362</v>
+        <v>0.05813570603785562</v>
       </c>
       <c r="H33">
-        <v>0.02938221758605097</v>
+        <v>-0.04049534042186745</v>
       </c>
       <c r="I33">
-        <v>-0.025222704003957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.02153782447024269</v>
+      </c>
+      <c r="J33">
+        <v>-0.01444274042318095</v>
+      </c>
+      <c r="K33">
+        <v>-0.0450427601634837</v>
+      </c>
+      <c r="L33">
+        <v>0.0002721711471691205</v>
+      </c>
+      <c r="M33">
+        <v>-0.04116850924714005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>-0.05001308651823418</v>
+        <v>0.06366765731475559</v>
       </c>
       <c r="C34">
-        <v>-0.07995887857037598</v>
+        <v>0.06466254166927329</v>
       </c>
       <c r="D34">
-        <v>0.02777848549088848</v>
+        <v>-0.02878843876660817</v>
       </c>
       <c r="E34">
-        <v>0.03649040086893135</v>
+        <v>0.01630496195139172</v>
       </c>
       <c r="F34">
-        <v>0.01161845643183777</v>
+        <v>-0.09453126300093632</v>
       </c>
       <c r="G34">
-        <v>0.01553998325581856</v>
+        <v>0.02770387567879221</v>
       </c>
       <c r="H34">
-        <v>-0.00435721014540518</v>
+        <v>-0.06628722641042908</v>
       </c>
       <c r="I34">
-        <v>-0.04680814352054678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.01723531013640791</v>
+      </c>
+      <c r="J34">
+        <v>0.04467783675573814</v>
+      </c>
+      <c r="K34">
+        <v>0.04522808046042059</v>
+      </c>
+      <c r="L34">
+        <v>-0.002814172838412058</v>
+      </c>
+      <c r="M34">
+        <v>-0.05602053307852766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>-0.03722263048916268</v>
+        <v>0.0291151478540078</v>
       </c>
       <c r="C35">
-        <v>-0.0171648779464716</v>
+        <v>0.0235666028565074</v>
       </c>
       <c r="D35">
-        <v>0.008310271270375806</v>
+        <v>-3.614573407443185e-05</v>
       </c>
       <c r="E35">
-        <v>0.02658265868226676</v>
+        <v>-0.002870203248070957</v>
       </c>
       <c r="F35">
-        <v>0.03587895437532208</v>
+        <v>-0.01748725687910776</v>
       </c>
       <c r="G35">
-        <v>0.01986496350477517</v>
+        <v>0.03536229814700193</v>
       </c>
       <c r="H35">
-        <v>0.03412598599478563</v>
+        <v>-0.05326228882690076</v>
       </c>
       <c r="I35">
-        <v>-0.01971226334401506</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.02593332541499895</v>
+      </c>
+      <c r="J35">
+        <v>0.03411721511544835</v>
+      </c>
+      <c r="K35">
+        <v>-0.03261671628388367</v>
+      </c>
+      <c r="L35">
+        <v>-0.0493547879121199</v>
+      </c>
+      <c r="M35">
+        <v>0.00806935082673526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>-0.02539015253170913</v>
+        <v>0.02910918754768179</v>
       </c>
       <c r="C36">
-        <v>-0.01320804045110717</v>
+        <v>0.0185723363389146</v>
       </c>
       <c r="D36">
-        <v>0.02890948615647302</v>
+        <v>0.01245645859473523</v>
       </c>
       <c r="E36">
-        <v>0.02070198022207661</v>
+        <v>0.01831991816503828</v>
       </c>
       <c r="F36">
-        <v>0.02595244911069494</v>
+        <v>-0.05327808249852361</v>
       </c>
       <c r="G36">
-        <v>0.02044824389422004</v>
+        <v>0.0244886908416535</v>
       </c>
       <c r="H36">
-        <v>0.01352647176978814</v>
+        <v>-0.0511217811408091</v>
       </c>
       <c r="I36">
-        <v>0.01846833955945705</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.001294466181266663</v>
+      </c>
+      <c r="J36">
+        <v>-0.01222114298169321</v>
+      </c>
+      <c r="K36">
+        <v>-0.04847058276623119</v>
+      </c>
+      <c r="L36">
+        <v>-0.01470635343576254</v>
+      </c>
+      <c r="M36">
+        <v>-0.03652393457428824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>-0.04004353739022852</v>
+        <v>0.0327720874996654</v>
       </c>
       <c r="C38">
-        <v>-0.02888151254525014</v>
+        <v>0.04805237432862052</v>
       </c>
       <c r="D38">
-        <v>-0.02834700173708257</v>
+        <v>0.02477556436023787</v>
       </c>
       <c r="E38">
-        <v>0.0490464229392114</v>
+        <v>6.248794755515541e-05</v>
       </c>
       <c r="F38">
-        <v>0.003149940083291551</v>
+        <v>0.04441371031812604</v>
       </c>
       <c r="G38">
-        <v>0.005875064490111175</v>
+        <v>0.03290832523392282</v>
       </c>
       <c r="H38">
-        <v>0.04979542020549373</v>
+        <v>0.08160707233691235</v>
       </c>
       <c r="I38">
-        <v>-0.03375319223224629</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-0.02097419800485685</v>
+      </c>
+      <c r="J38">
+        <v>0.02436536500037938</v>
+      </c>
+      <c r="K38">
+        <v>-0.1721791255015514</v>
+      </c>
+      <c r="L38">
+        <v>0.06824274938210322</v>
+      </c>
+      <c r="M38">
+        <v>0.03664494742411639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>-0.09132607369866141</v>
+        <v>0.0945720367143746</v>
       </c>
       <c r="C39">
-        <v>-0.1043615741491332</v>
+        <v>0.0864807035274225</v>
       </c>
       <c r="D39">
-        <v>0.01869202087914527</v>
+        <v>-0.07674826966166655</v>
       </c>
       <c r="E39">
-        <v>0.0357137564622564</v>
+        <v>0.006621693320921524</v>
       </c>
       <c r="F39">
-        <v>-0.02172320896834826</v>
+        <v>-0.1437075422491132</v>
       </c>
       <c r="G39">
-        <v>0.01545316288838913</v>
+        <v>0.04639349350430656</v>
       </c>
       <c r="H39">
-        <v>-0.004874322753690672</v>
+        <v>-0.08836281300466177</v>
       </c>
       <c r="I39">
-        <v>-0.1499453125766326</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.0853317685560873</v>
+      </c>
+      <c r="J39">
+        <v>0.1698015922510711</v>
+      </c>
+      <c r="K39">
+        <v>-0.0008592751801813807</v>
+      </c>
+      <c r="L39">
+        <v>-0.08477081344870339</v>
+      </c>
+      <c r="M39">
+        <v>0.02806038259741667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>-0.06009173744308269</v>
+        <v>0.0392577509263165</v>
       </c>
       <c r="C40">
-        <v>-0.03433420336667686</v>
+        <v>0.05561428068007521</v>
       </c>
       <c r="D40">
-        <v>-0.02304824427860998</v>
+        <v>0.04807350659323081</v>
       </c>
       <c r="E40">
-        <v>0.1552755098359685</v>
+        <v>-0.007644840797306393</v>
       </c>
       <c r="F40">
-        <v>0.06208455038748566</v>
+        <v>-0.1300864001997808</v>
       </c>
       <c r="G40">
-        <v>0.05906907852869334</v>
+        <v>-0.03119707714331653</v>
       </c>
       <c r="H40">
-        <v>0.01843352647944051</v>
+        <v>-0.004777833437217716</v>
       </c>
       <c r="I40">
-        <v>-0.1565199597767782</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.0182220779838112</v>
+      </c>
+      <c r="J40">
+        <v>0.07966976528777443</v>
+      </c>
+      <c r="K40">
+        <v>-0.1181413071787402</v>
+      </c>
+      <c r="L40">
+        <v>-0.06144422927339564</v>
+      </c>
+      <c r="M40">
+        <v>0.03353781188101798</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>-0.04232811929061505</v>
+        <v>0.03546038930344881</v>
       </c>
       <c r="C41">
-        <v>-0.05043647927574392</v>
+        <v>0.03685901231222222</v>
       </c>
       <c r="D41">
-        <v>0.008244961390925409</v>
+        <v>-0.01911985047924173</v>
       </c>
       <c r="E41">
-        <v>0.004231366069947303</v>
+        <v>-0.00118382216064288</v>
       </c>
       <c r="F41">
-        <v>0.02078129316653804</v>
+        <v>-0.01546705628340119</v>
       </c>
       <c r="G41">
-        <v>0.01899750798502184</v>
+        <v>0.02371348387019784</v>
       </c>
       <c r="H41">
-        <v>0.01888229533437386</v>
+        <v>0.00517306113922054</v>
       </c>
       <c r="I41">
-        <v>-0.05121518137124309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.01639386789021626</v>
+      </c>
+      <c r="J41">
+        <v>0.01464170554533002</v>
+      </c>
+      <c r="K41">
+        <v>-0.02907545452863206</v>
+      </c>
+      <c r="L41">
+        <v>-0.02304576299154111</v>
+      </c>
+      <c r="M41">
+        <v>-0.01409814082501217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>-0.05229849118459678</v>
+        <v>0.05123654397292133</v>
       </c>
       <c r="C43">
-        <v>-0.03940187960653184</v>
+        <v>0.04931009923387696</v>
       </c>
       <c r="D43">
-        <v>0.02839378746992107</v>
+        <v>0.01145371629832105</v>
       </c>
       <c r="E43">
-        <v>0.02276939569655424</v>
+        <v>0.01956892363682338</v>
       </c>
       <c r="F43">
-        <v>0.009263879754693106</v>
+        <v>-0.01272154598027909</v>
       </c>
       <c r="G43">
-        <v>0.0001009328801862573</v>
+        <v>0.04665210263720115</v>
       </c>
       <c r="H43">
-        <v>0.05968620711400271</v>
+        <v>0.007084125424801829</v>
       </c>
       <c r="I43">
-        <v>0.0003882549019760548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.00428392118146591</v>
+      </c>
+      <c r="J43">
+        <v>0.015294131728769</v>
+      </c>
+      <c r="K43">
+        <v>-0.009427893844231011</v>
+      </c>
+      <c r="L43">
+        <v>-0.009362118846615003</v>
+      </c>
+      <c r="M43">
+        <v>-0.03232669661053971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-0.04960497229364839</v>
+        <v>0.08298718078467424</v>
       </c>
       <c r="C44">
-        <v>-0.02382070615418271</v>
+        <v>0.06212948932858828</v>
       </c>
       <c r="D44">
-        <v>0.0703525558612918</v>
+        <v>0.06568003199280162</v>
       </c>
       <c r="E44">
-        <v>0.1323293744197157</v>
+        <v>0.09772499054552682</v>
       </c>
       <c r="F44">
-        <v>0.003469030884886605</v>
+        <v>-0.1676093851763298</v>
       </c>
       <c r="G44">
-        <v>0.01991893644498598</v>
+        <v>0.03421575028745726</v>
       </c>
       <c r="H44">
-        <v>-0.01603383323639997</v>
+        <v>-0.08303732275162642</v>
       </c>
       <c r="I44">
-        <v>-0.08697640989776136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.01617671586464518</v>
+      </c>
+      <c r="J44">
+        <v>0.04481569998938688</v>
+      </c>
+      <c r="K44">
+        <v>-0.0540726910595784</v>
+      </c>
+      <c r="L44">
+        <v>-0.05111207479432143</v>
+      </c>
+      <c r="M44">
+        <v>0.0356441312407272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>-0.01957677429391325</v>
+        <v>0.03890189566234547</v>
       </c>
       <c r="C46">
-        <v>-0.03719184625768334</v>
+        <v>0.04159212504027005</v>
       </c>
       <c r="D46">
-        <v>0.01510718420698224</v>
+        <v>0.04106272006523668</v>
       </c>
       <c r="E46">
-        <v>0.05187784437313791</v>
+        <v>0.02878834889999697</v>
       </c>
       <c r="F46">
-        <v>0.0182277609954288</v>
+        <v>-0.02281321470608867</v>
       </c>
       <c r="G46">
-        <v>0.007904176960616889</v>
+        <v>0.02260916293848795</v>
       </c>
       <c r="H46">
-        <v>-0.006962723677271551</v>
+        <v>-0.04925280611920965</v>
       </c>
       <c r="I46">
-        <v>-0.02726158699097627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.02167461597704515</v>
+      </c>
+      <c r="J46">
+        <v>-0.03604644201448163</v>
+      </c>
+      <c r="K46">
+        <v>-0.07294753132248033</v>
+      </c>
+      <c r="L46">
+        <v>0.004239034853178147</v>
+      </c>
+      <c r="M46">
+        <v>-0.008052480208406083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>-0.03011084887110768</v>
+        <v>0.04427121739942255</v>
       </c>
       <c r="C47">
-        <v>0.0006041195024913506</v>
+        <v>0.02818887114573873</v>
       </c>
       <c r="D47">
-        <v>-0.003504714508812891</v>
+        <v>0.02070910587403929</v>
       </c>
       <c r="E47">
-        <v>0.06339466916316025</v>
+        <v>0.003768596434482021</v>
       </c>
       <c r="F47">
-        <v>0.03100599815533926</v>
+        <v>-0.02986860080291584</v>
       </c>
       <c r="G47">
-        <v>0.03227513093259066</v>
+        <v>0.04157223649538867</v>
       </c>
       <c r="H47">
-        <v>0.003672424528383168</v>
+        <v>-0.01368312822298665</v>
       </c>
       <c r="I47">
-        <v>0.04686258823053739</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.02353235082465305</v>
+      </c>
+      <c r="J47">
+        <v>-0.02199523174438914</v>
+      </c>
+      <c r="K47">
+        <v>-0.01197139658724715</v>
+      </c>
+      <c r="L47">
+        <v>-0.008039090195956897</v>
+      </c>
+      <c r="M47">
+        <v>-0.05913807307808697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>-0.03463521279616096</v>
+        <v>0.04303519268223589</v>
       </c>
       <c r="C48">
-        <v>-0.02255577932283238</v>
+        <v>0.01947821616909835</v>
       </c>
       <c r="D48">
-        <v>0.01031720104918171</v>
+        <v>0.01245664356054025</v>
       </c>
       <c r="E48">
-        <v>0.04078602130973837</v>
+        <v>0.0007328788595099107</v>
       </c>
       <c r="F48">
-        <v>0.03874339182815824</v>
+        <v>-0.05822662371177909</v>
       </c>
       <c r="G48">
-        <v>0.01798736153333328</v>
+        <v>0.0009773085640132505</v>
       </c>
       <c r="H48">
-        <v>0.04758466009125444</v>
+        <v>-0.06764879775349496</v>
       </c>
       <c r="I48">
-        <v>-0.004986201334057918</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.0113197235765299</v>
+      </c>
+      <c r="J48">
+        <v>0.0158039011052703</v>
+      </c>
+      <c r="K48">
+        <v>-0.0210464198925441</v>
+      </c>
+      <c r="L48">
+        <v>-0.05440449155200751</v>
+      </c>
+      <c r="M48">
+        <v>-0.02726708644676355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>-0.1863191253214735</v>
+        <v>0.2222447723341467</v>
       </c>
       <c r="C49">
-        <v>-0.1219553441668715</v>
+        <v>0.08518326485434956</v>
       </c>
       <c r="D49">
-        <v>0.07934112886879276</v>
+        <v>-0.06643862911354965</v>
       </c>
       <c r="E49">
-        <v>-0.06271037565661566</v>
+        <v>0.02312858789414616</v>
       </c>
       <c r="F49">
-        <v>-0.01050382420767196</v>
+        <v>0.223077857689993</v>
       </c>
       <c r="G49">
-        <v>-0.1902818561510024</v>
+        <v>-0.1929363792872754</v>
       </c>
       <c r="H49">
-        <v>-0.06525588068670993</v>
+        <v>-0.03980965235585022</v>
       </c>
       <c r="I49">
-        <v>0.005279300135227587</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.1055730958941796</v>
+      </c>
+      <c r="J49">
+        <v>0.1573843413401692</v>
+      </c>
+      <c r="K49">
+        <v>0.0389371975944884</v>
+      </c>
+      <c r="L49">
+        <v>0.2100560025699465</v>
+      </c>
+      <c r="M49">
+        <v>-0.03662997308810666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>-0.05408330242011251</v>
+        <v>0.04383637975323344</v>
       </c>
       <c r="C50">
-        <v>-0.0330148348144242</v>
+        <v>0.04285115368318652</v>
       </c>
       <c r="D50">
-        <v>0.01204610379417993</v>
+        <v>0.001100929288319865</v>
       </c>
       <c r="E50">
-        <v>0.01543939828487302</v>
+        <v>-0.009130971770084055</v>
       </c>
       <c r="F50">
-        <v>0.05708208547911488</v>
+        <v>-0.03850848476254042</v>
       </c>
       <c r="G50">
-        <v>0.04500254787518466</v>
+        <v>0.05686770153794693</v>
       </c>
       <c r="H50">
-        <v>0.006699676139693362</v>
+        <v>-0.02929542583738158</v>
       </c>
       <c r="I50">
-        <v>0.0234486128454808</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.0007924986014565587</v>
+      </c>
+      <c r="J50">
+        <v>-0.04358565907201117</v>
+      </c>
+      <c r="K50">
+        <v>-0.0238307011119891</v>
+      </c>
+      <c r="L50">
+        <v>-0.0218222399309643</v>
+      </c>
+      <c r="M50">
+        <v>0.039053662883999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>-0.02404291946143881</v>
+        <v>0.03091703609991894</v>
       </c>
       <c r="C51">
-        <v>-0.0124677514439747</v>
+        <v>0.005975797483750298</v>
       </c>
       <c r="D51">
-        <v>-0.005226720847357959</v>
+        <v>-0.002166319322297581</v>
       </c>
       <c r="E51">
-        <v>0.01683780787349314</v>
+        <v>0.01940306136421539</v>
       </c>
       <c r="F51">
-        <v>-0.01757271525628228</v>
+        <v>0.01712832298951101</v>
       </c>
       <c r="G51">
-        <v>-0.01577226556920837</v>
+        <v>-0.01205953329928467</v>
       </c>
       <c r="H51">
-        <v>-0.02184932481104759</v>
+        <v>0.01340848234362218</v>
       </c>
       <c r="I51">
-        <v>-0.02966756006062919</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.02982429229714264</v>
+      </c>
+      <c r="J51">
+        <v>0.05224123563375448</v>
+      </c>
+      <c r="K51">
+        <v>0.07801100337950764</v>
+      </c>
+      <c r="L51">
+        <v>0.01559364748164545</v>
+      </c>
+      <c r="M51">
+        <v>-0.01779186574994147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.003861667531752713</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.001977875241207553</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01218765126692455</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.0006764488698054076</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.009582010985707514</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.006036430668568923</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>-0.00526865079471454</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.02815711188030577</v>
+      </c>
+      <c r="J52">
+        <v>0.00181952884238715</v>
+      </c>
+      <c r="K52">
+        <v>0.02628078517659658</v>
+      </c>
+      <c r="L52">
+        <v>-0.001562199916918543</v>
+      </c>
+      <c r="M52">
+        <v>0.004499657827986081</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>-0.1661970979310344</v>
+        <v>0.1526781118659159</v>
       </c>
       <c r="C53">
-        <v>-0.01980887375498951</v>
+        <v>0.049372713666372</v>
       </c>
       <c r="D53">
-        <v>0.03697470400931171</v>
+        <v>-0.01858946966724825</v>
       </c>
       <c r="E53">
-        <v>-0.08241660566021293</v>
+        <v>-0.006398324569107265</v>
       </c>
       <c r="F53">
-        <v>-0.0105653803740657</v>
+        <v>0.07310814796952417</v>
       </c>
       <c r="G53">
-        <v>0.2650858699936894</v>
+        <v>0.2268758875845855</v>
       </c>
       <c r="H53">
-        <v>0.01880896270697231</v>
+        <v>0.08061799084950649</v>
       </c>
       <c r="I53">
-        <v>0.02665833588591961</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.0355389956751783</v>
+      </c>
+      <c r="J53">
+        <v>-0.09302558587104685</v>
+      </c>
+      <c r="K53">
+        <v>0.04139238251553233</v>
+      </c>
+      <c r="L53">
+        <v>0.03985496792720913</v>
+      </c>
+      <c r="M53">
+        <v>0.09998462677422761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>-0.05019404012340361</v>
+        <v>0.05728821307871269</v>
       </c>
       <c r="C54">
-        <v>-0.03401963454432846</v>
+        <v>0.03277870810727055</v>
       </c>
       <c r="D54">
-        <v>0.03866714982734345</v>
+        <v>0.01777486831428771</v>
       </c>
       <c r="E54">
-        <v>0.02476736328717244</v>
+        <v>0.01976316086974111</v>
       </c>
       <c r="F54">
-        <v>0.02088657563915154</v>
+        <v>-0.1007091953206468</v>
       </c>
       <c r="G54">
-        <v>0.003175094581015669</v>
+        <v>0.01332517578728686</v>
       </c>
       <c r="H54">
-        <v>0.02725844509402005</v>
+        <v>-0.06413705608115962</v>
       </c>
       <c r="I54">
-        <v>-0.008958935806051505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.07099947116588262</v>
+      </c>
+      <c r="J54">
+        <v>-0.06802426894224781</v>
+      </c>
+      <c r="K54">
+        <v>-0.0473670157594192</v>
+      </c>
+      <c r="L54">
+        <v>-0.04422289136987913</v>
+      </c>
+      <c r="M54">
+        <v>-0.03188514766712584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>-0.09293070532492008</v>
+        <v>0.08808568441515492</v>
       </c>
       <c r="C55">
-        <v>-0.006543440857282006</v>
+        <v>0.03905433979288826</v>
       </c>
       <c r="D55">
-        <v>0.03282411968109435</v>
+        <v>-0.02801957559368967</v>
       </c>
       <c r="E55">
-        <v>-0.01954837215129723</v>
+        <v>0.01040613959628255</v>
       </c>
       <c r="F55">
-        <v>0.02211837028737229</v>
+        <v>0.002146489732501547</v>
       </c>
       <c r="G55">
-        <v>0.233075265421763</v>
+        <v>0.1684734014022672</v>
       </c>
       <c r="H55">
-        <v>0.0006763918174951874</v>
+        <v>0.02836832072158617</v>
       </c>
       <c r="I55">
-        <v>0.02649472588952834</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.01507803627886294</v>
+      </c>
+      <c r="J55">
+        <v>-0.05538754669790373</v>
+      </c>
+      <c r="K55">
+        <v>0.03152681664243238</v>
+      </c>
+      <c r="L55">
+        <v>0.02823432133810803</v>
+      </c>
+      <c r="M55">
+        <v>0.0658416516343583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>-0.1704111941324219</v>
+        <v>0.1466959767080314</v>
       </c>
       <c r="C56">
-        <v>-0.01882953639042496</v>
+        <v>0.06865013614280221</v>
       </c>
       <c r="D56">
-        <v>0.06326657162642337</v>
+        <v>-0.03166865227025388</v>
       </c>
       <c r="E56">
-        <v>-0.08588507433492139</v>
+        <v>0.009847715405074087</v>
       </c>
       <c r="F56">
-        <v>-0.02203044911047864</v>
+        <v>0.04495049003928975</v>
       </c>
       <c r="G56">
-        <v>0.2323428992329748</v>
+        <v>0.2311699146037163</v>
       </c>
       <c r="H56">
-        <v>0.04770002117779733</v>
+        <v>0.115852348705743</v>
       </c>
       <c r="I56">
-        <v>0.04712244025717009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.04155632253598612</v>
+      </c>
+      <c r="J56">
+        <v>-0.06527954284045653</v>
+      </c>
+      <c r="K56">
+        <v>0.02612327217271261</v>
+      </c>
+      <c r="L56">
+        <v>0.01870794069513182</v>
+      </c>
+      <c r="M56">
+        <v>0.07117002807214008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>-0.05008668726764401</v>
+        <v>0.04175533021443542</v>
       </c>
       <c r="C58">
-        <v>-0.04061853242413378</v>
+        <v>0.03332866843751568</v>
       </c>
       <c r="D58">
-        <v>0.04471788330471581</v>
+        <v>0.08005860781761774</v>
       </c>
       <c r="E58">
-        <v>0.2962129812616182</v>
+        <v>0.02776808210886477</v>
       </c>
       <c r="F58">
-        <v>0.1583462657764234</v>
+        <v>-0.03219679038859984</v>
       </c>
       <c r="G58">
-        <v>-0.1419717198939382</v>
+        <v>-0.06117638492274817</v>
       </c>
       <c r="H58">
-        <v>-0.0169291516791306</v>
+        <v>-0.2264084499197294</v>
       </c>
       <c r="I58">
-        <v>0.1623213475210425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.1814516408008875</v>
+      </c>
+      <c r="J58">
+        <v>0.04819722093223568</v>
+      </c>
+      <c r="K58">
+        <v>0.3000594371247086</v>
+      </c>
+      <c r="L58">
+        <v>-0.4594065138389923</v>
+      </c>
+      <c r="M58">
+        <v>-0.220573441360563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>-0.2517417900120157</v>
+        <v>0.230846303140387</v>
       </c>
       <c r="C59">
-        <v>0.4049177276636614</v>
+        <v>-0.3021206829534936</v>
       </c>
       <c r="D59">
-        <v>0.03063282255136435</v>
+        <v>-0.03730374393842571</v>
       </c>
       <c r="E59">
-        <v>0.0358434891619779</v>
+        <v>0.01014350771242266</v>
       </c>
       <c r="F59">
-        <v>-0.08000635982957972</v>
+        <v>-0.02483950338027168</v>
       </c>
       <c r="G59">
-        <v>0.03689103987167189</v>
+        <v>0.0572953809302234</v>
       </c>
       <c r="H59">
-        <v>0.01984853525519757</v>
+        <v>0.08069181767559612</v>
       </c>
       <c r="I59">
-        <v>-0.05875731600124834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.07798238875793008</v>
+      </c>
+      <c r="J59">
+        <v>0.04214799005114876</v>
+      </c>
+      <c r="K59">
+        <v>0.07429804203831346</v>
+      </c>
+      <c r="L59">
+        <v>0.01662503924893214</v>
+      </c>
+      <c r="M59">
+        <v>-0.01314810139935824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>-0.2453622392630737</v>
+        <v>0.2407084977784436</v>
       </c>
       <c r="C60">
-        <v>-0.08139065238119</v>
+        <v>0.1157492983919706</v>
       </c>
       <c r="D60">
-        <v>0.09838343742351159</v>
+        <v>-0.06700310099346429</v>
       </c>
       <c r="E60">
-        <v>0.008289842348718187</v>
+        <v>0.03607405488630794</v>
       </c>
       <c r="F60">
-        <v>-0.03775589227631327</v>
+        <v>0.1110224259846029</v>
       </c>
       <c r="G60">
-        <v>-0.06206260969386626</v>
+        <v>-0.06838986167275889</v>
       </c>
       <c r="H60">
-        <v>-0.08562117092933513</v>
+        <v>0.09840215999550876</v>
       </c>
       <c r="I60">
-        <v>0.06770374301259306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.09424617621191263</v>
+      </c>
+      <c r="J60">
+        <v>-0.09203001654266474</v>
+      </c>
+      <c r="K60">
+        <v>0.1140472431253652</v>
+      </c>
+      <c r="L60">
+        <v>0.08151693480045227</v>
+      </c>
+      <c r="M60">
+        <v>0.01815294208603636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>-0.07659796690336576</v>
+        <v>0.08716785829120628</v>
       </c>
       <c r="C61">
-        <v>-0.0587365879917041</v>
+        <v>0.06133371816270421</v>
       </c>
       <c r="D61">
-        <v>0.02033828682024133</v>
+        <v>-0.04194249586726835</v>
       </c>
       <c r="E61">
-        <v>0.00468026596182321</v>
+        <v>0.02163726246823524</v>
       </c>
       <c r="F61">
-        <v>0.02115768970382824</v>
+        <v>-0.106683524018051</v>
       </c>
       <c r="G61">
-        <v>0.01524153194680455</v>
+        <v>0.06953663376319269</v>
       </c>
       <c r="H61">
-        <v>0.00541318837645148</v>
+        <v>-0.04576271416487294</v>
       </c>
       <c r="I61">
-        <v>-0.08149472447936962</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.02162891359726685</v>
+      </c>
+      <c r="J61">
+        <v>0.08256804077498954</v>
+      </c>
+      <c r="K61">
+        <v>-0.008903285705696352</v>
+      </c>
+      <c r="L61">
+        <v>-0.03372424911822208</v>
+      </c>
+      <c r="M61">
+        <v>0.01131942932994332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>-0.1641968824667964</v>
+        <v>0.1458788996552559</v>
       </c>
       <c r="C62">
-        <v>-0.05446695628661608</v>
+        <v>0.07812171540624378</v>
       </c>
       <c r="D62">
-        <v>0.02062764349552412</v>
+        <v>-0.03492392804628897</v>
       </c>
       <c r="E62">
-        <v>-0.1291153244207037</v>
+        <v>-0.02965197941053376</v>
       </c>
       <c r="F62">
-        <v>-0.03420251049732509</v>
+        <v>0.03121108324723948</v>
       </c>
       <c r="G62">
-        <v>0.2485031110746468</v>
+        <v>0.2016915788020185</v>
       </c>
       <c r="H62">
-        <v>0.01983936336252106</v>
+        <v>0.07008242554926955</v>
       </c>
       <c r="I62">
-        <v>-0.02132251079290347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.02789408663032213</v>
+      </c>
+      <c r="J62">
+        <v>-0.1163120926948699</v>
+      </c>
+      <c r="K62">
+        <v>-0.0426635697008713</v>
+      </c>
+      <c r="L62">
+        <v>0.08769207985605654</v>
+      </c>
+      <c r="M62">
+        <v>0.07622542370043883</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>-0.04467646310010583</v>
+        <v>0.04466424643806109</v>
       </c>
       <c r="C63">
-        <v>-0.04246222852195678</v>
+        <v>0.02931243107314456</v>
       </c>
       <c r="D63">
-        <v>0.02842094798166946</v>
+        <v>-0.006509260793377543</v>
       </c>
       <c r="E63">
-        <v>0.003561421053396452</v>
+        <v>-0.005421801030101521</v>
       </c>
       <c r="F63">
-        <v>0.02727423028886991</v>
+        <v>-0.05956160056416764</v>
       </c>
       <c r="G63">
-        <v>0.03385858993723827</v>
+        <v>0.0154734260831956</v>
       </c>
       <c r="H63">
-        <v>-0.02707388796824715</v>
+        <v>-0.05722959217404392</v>
       </c>
       <c r="I63">
-        <v>0.01008912100488327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.01653895268991952</v>
+      </c>
+      <c r="J63">
+        <v>-0.03290871097282455</v>
+      </c>
+      <c r="K63">
+        <v>-0.02310275168030277</v>
+      </c>
+      <c r="L63">
+        <v>-0.01379570028412409</v>
+      </c>
+      <c r="M63">
+        <v>0.001525058608891021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>-0.1007576697629372</v>
+        <v>0.1011388504110552</v>
       </c>
       <c r="C64">
-        <v>-0.03578991993808243</v>
+        <v>0.05111897479235503</v>
       </c>
       <c r="D64">
-        <v>0.04380416685160466</v>
+        <v>0.0001855114790778599</v>
       </c>
       <c r="E64">
-        <v>0.03400620273607199</v>
+        <v>0.04034147978161023</v>
       </c>
       <c r="F64">
-        <v>0.03141288594043273</v>
+        <v>-0.05474260590241563</v>
       </c>
       <c r="G64">
-        <v>-0.02219555117433481</v>
+        <v>-0.007183889624483295</v>
       </c>
       <c r="H64">
-        <v>-0.0217885101442421</v>
+        <v>-0.04331327691015234</v>
       </c>
       <c r="I64">
-        <v>-0.09144418629401085</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.05165251490310351</v>
+      </c>
+      <c r="J64">
+        <v>0.01244060234713066</v>
+      </c>
+      <c r="K64">
+        <v>-0.04561349444532662</v>
+      </c>
+      <c r="L64">
+        <v>-0.02043639135062463</v>
+      </c>
+      <c r="M64">
+        <v>0.06014947094104379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>-0.1268515605234372</v>
+        <v>0.1229744724125449</v>
       </c>
       <c r="C65">
-        <v>-0.06106637486638562</v>
+        <v>0.04269905970322972</v>
       </c>
       <c r="D65">
-        <v>0.07281718025215966</v>
+        <v>-0.0135938614293437</v>
       </c>
       <c r="E65">
-        <v>0.1001727532529571</v>
+        <v>0.00478199122329968</v>
       </c>
       <c r="F65">
-        <v>0.1412817494912457</v>
+        <v>-0.03706104373329907</v>
       </c>
       <c r="G65">
-        <v>-0.1168398190615225</v>
+        <v>-0.195567769758498</v>
       </c>
       <c r="H65">
-        <v>-0.2780174398623808</v>
+        <v>-0.1010984404317004</v>
       </c>
       <c r="I65">
-        <v>0.6060240980600876</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.1874843213706981</v>
+      </c>
+      <c r="J65">
+        <v>-0.6364940874969589</v>
+      </c>
+      <c r="K65">
+        <v>-0.01119587449291103</v>
+      </c>
+      <c r="L65">
+        <v>0.06297306279095856</v>
+      </c>
+      <c r="M65">
+        <v>-0.1173993065747841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>-0.1510191334997527</v>
+        <v>0.1245478964383579</v>
       </c>
       <c r="C66">
-        <v>-0.1582548254847626</v>
+        <v>0.1307848074292719</v>
       </c>
       <c r="D66">
-        <v>0.04792072089719262</v>
+        <v>-0.1014473761214293</v>
       </c>
       <c r="E66">
-        <v>-0.005557247811135274</v>
+        <v>-0.005663068481306108</v>
       </c>
       <c r="F66">
-        <v>-0.04814243624969226</v>
+        <v>-0.1564957771739671</v>
       </c>
       <c r="G66">
-        <v>0.02708501445023736</v>
+        <v>0.06670286204704361</v>
       </c>
       <c r="H66">
-        <v>-0.02102862443682073</v>
+        <v>-0.07288324634362517</v>
       </c>
       <c r="I66">
-        <v>-0.3429971969046836</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.09349596965494436</v>
+      </c>
+      <c r="J66">
+        <v>0.2299469043508345</v>
+      </c>
+      <c r="K66">
+        <v>-0.03499083388095989</v>
+      </c>
+      <c r="L66">
+        <v>-0.05652304170823249</v>
+      </c>
+      <c r="M66">
+        <v>0.07745716187383792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>-0.07183953140271082</v>
+        <v>0.08251684099232445</v>
       </c>
       <c r="C67">
-        <v>-0.04509383645850197</v>
+        <v>0.06650363064573862</v>
       </c>
       <c r="D67">
-        <v>0.006209956438155066</v>
+        <v>0.01659595184870433</v>
       </c>
       <c r="E67">
-        <v>0.01532205219761403</v>
+        <v>0.03214757773935181</v>
       </c>
       <c r="F67">
-        <v>-0.009328660836178783</v>
+        <v>0.0366573256061378</v>
       </c>
       <c r="G67">
-        <v>-0.01004145295800718</v>
+        <v>0.0454944368787733</v>
       </c>
       <c r="H67">
-        <v>0.04987749484862897</v>
+        <v>0.1161380671450574</v>
       </c>
       <c r="I67">
-        <v>-0.04243625377732067</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-0.01785098608127562</v>
+      </c>
+      <c r="J67">
+        <v>0.04024271261235499</v>
+      </c>
+      <c r="K67">
+        <v>-0.1246489475491859</v>
+      </c>
+      <c r="L67">
+        <v>0.09494300832694118</v>
+      </c>
+      <c r="M67">
+        <v>0.02035127622882942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>-0.1074636417230813</v>
+        <v>0.1226631832122002</v>
       </c>
       <c r="C68">
-        <v>0.265952398462581</v>
+        <v>-0.2722532486512858</v>
       </c>
       <c r="D68">
-        <v>0.001463695239124744</v>
+        <v>-0.005142611804175189</v>
       </c>
       <c r="E68">
-        <v>0.01167781407950304</v>
+        <v>0.003003891078477555</v>
       </c>
       <c r="F68">
-        <v>0.02584446978065983</v>
+        <v>-0.01934386818259492</v>
       </c>
       <c r="G68">
-        <v>0.02613083759348762</v>
+        <v>0.02941007038803983</v>
       </c>
       <c r="H68">
-        <v>0.01494349135120908</v>
+        <v>-0.0281177140735266</v>
       </c>
       <c r="I68">
-        <v>0.02026343126317208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.0245888120649212</v>
+      </c>
+      <c r="J68">
+        <v>-0.05159461887940449</v>
+      </c>
+      <c r="K68">
+        <v>-0.02395950135538057</v>
+      </c>
+      <c r="L68">
+        <v>-0.01522727149542413</v>
+      </c>
+      <c r="M68">
+        <v>0.01000585021714743</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>-0.04494785739818543</v>
+        <v>0.04466387353010765</v>
       </c>
       <c r="C69">
-        <v>-0.02888761233223376</v>
+        <v>0.02297667965160705</v>
       </c>
       <c r="D69">
-        <v>0.01178947264295827</v>
+        <v>0.01141176692027532</v>
       </c>
       <c r="E69">
-        <v>0.01659074646179257</v>
+        <v>-0.003947453622907898</v>
       </c>
       <c r="F69">
-        <v>-0.03546356380975032</v>
+        <v>-0.01248250669737477</v>
       </c>
       <c r="G69">
-        <v>0.04064159824147695</v>
+        <v>0.04140899233577757</v>
       </c>
       <c r="H69">
-        <v>0.004394280357073535</v>
+        <v>0.02719444174655182</v>
       </c>
       <c r="I69">
-        <v>0.0178158737705398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.02507030597925005</v>
+      </c>
+      <c r="J69">
+        <v>0.001684744914775289</v>
+      </c>
+      <c r="K69">
+        <v>-0.01440908289552175</v>
+      </c>
+      <c r="L69">
+        <v>0.01157550293269779</v>
+      </c>
+      <c r="M69">
+        <v>-0.06736560839504223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>-0.03323597685119422</v>
+        <v>0.05431028844080606</v>
       </c>
       <c r="C70">
-        <v>-0.008750781251134977</v>
+        <v>0.03852419773257435</v>
       </c>
       <c r="D70">
-        <v>-0.00852980302991029</v>
+        <v>-0.02952168296857945</v>
       </c>
       <c r="E70">
-        <v>0.01596596819980237</v>
+        <v>-0.002117973727867943</v>
       </c>
       <c r="F70">
-        <v>0.001239550990080777</v>
+        <v>0.01071366100779879</v>
       </c>
       <c r="G70">
-        <v>-0.09139565233893267</v>
+        <v>-0.04418633836190608</v>
       </c>
       <c r="H70">
-        <v>0.05891543962126022</v>
+        <v>0.07597764124075777</v>
       </c>
       <c r="I70">
-        <v>-0.01500720211101899</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1186657304833569</v>
+      </c>
+      <c r="J70">
+        <v>0.01279004845779474</v>
+      </c>
+      <c r="K70">
+        <v>-0.1899553717124942</v>
+      </c>
+      <c r="L70">
+        <v>-0.05210253547277042</v>
+      </c>
+      <c r="M70">
+        <v>-0.1833795726711741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>-0.1103921043974644</v>
+        <v>0.1354775924520533</v>
       </c>
       <c r="C71">
-        <v>0.2789686822579368</v>
+        <v>-0.2809373909868675</v>
       </c>
       <c r="D71">
-        <v>0.02850487016546235</v>
+        <v>-0.007183095945823184</v>
       </c>
       <c r="E71">
-        <v>-0.0002425017008777166</v>
+        <v>0.02464500785626431</v>
       </c>
       <c r="F71">
-        <v>0.01641209399987703</v>
+        <v>-0.02182257180022609</v>
       </c>
       <c r="G71">
-        <v>-0.005224481619467971</v>
+        <v>0.02506337137716092</v>
       </c>
       <c r="H71">
-        <v>0.02159710132510426</v>
+        <v>-0.02318697026231163</v>
       </c>
       <c r="I71">
-        <v>-0.007067660609943032</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.02916090406215389</v>
+      </c>
+      <c r="J71">
+        <v>-0.005747814028214096</v>
+      </c>
+      <c r="K71">
+        <v>-0.01898566059038315</v>
+      </c>
+      <c r="L71">
+        <v>0.008694909375916778</v>
+      </c>
+      <c r="M71">
+        <v>0.004195884199790783</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>-0.1836720298233456</v>
+        <v>0.1446889445137996</v>
       </c>
       <c r="C72">
-        <v>-0.04526089060755664</v>
+        <v>0.03461207720239432</v>
       </c>
       <c r="D72">
-        <v>-0.2187745295273649</v>
+        <v>0.0001128035471803602</v>
       </c>
       <c r="E72">
-        <v>-0.01316929899488316</v>
+        <v>-0.180615665529961</v>
       </c>
       <c r="F72">
-        <v>-0.01447846959862929</v>
+        <v>-0.05966711675790367</v>
       </c>
       <c r="G72">
-        <v>0.006039918168948084</v>
+        <v>0.005358354839150656</v>
       </c>
       <c r="H72">
-        <v>-0.1208735417823563</v>
+        <v>0.05249736927820454</v>
       </c>
       <c r="I72">
-        <v>0.06906976730004484</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-0.04819698857212857</v>
+      </c>
+      <c r="J72">
+        <v>-0.1462978479263609</v>
+      </c>
+      <c r="K72">
+        <v>0.03666897650829701</v>
+      </c>
+      <c r="L72">
+        <v>0.0806788602880268</v>
+      </c>
+      <c r="M72">
+        <v>0.005292011742459484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>-0.2681579384653788</v>
+        <v>0.2335986373521787</v>
       </c>
       <c r="C73">
-        <v>-0.1806178725418257</v>
+        <v>0.1555511008523929</v>
       </c>
       <c r="D73">
-        <v>0.1600285003519828</v>
+        <v>-0.1525077842609689</v>
       </c>
       <c r="E73">
-        <v>-0.07011217597918297</v>
+        <v>0.08230548220344663</v>
       </c>
       <c r="F73">
-        <v>0.08728745099151826</v>
+        <v>0.3828272777396463</v>
       </c>
       <c r="G73">
-        <v>-0.1623834485129174</v>
+        <v>-0.2275391234719488</v>
       </c>
       <c r="H73">
-        <v>-0.1608717930820215</v>
+        <v>0.01495516659179216</v>
       </c>
       <c r="I73">
-        <v>0.08841820971840983</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.4014233810931691</v>
+      </c>
+      <c r="J73">
+        <v>0.22842996204231</v>
+      </c>
+      <c r="K73">
+        <v>0.2571766904187965</v>
+      </c>
+      <c r="L73">
+        <v>0.08957395341958832</v>
+      </c>
+      <c r="M73">
+        <v>0.1377462269337031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>-0.09057626628864598</v>
+        <v>0.08650501955388934</v>
       </c>
       <c r="C74">
-        <v>-0.02601643230525989</v>
+        <v>0.06620129502148288</v>
       </c>
       <c r="D74">
-        <v>0.02481968393840087</v>
+        <v>-0.01002609051232959</v>
       </c>
       <c r="E74">
-        <v>-0.03340531107247922</v>
+        <v>-0.005088967573514461</v>
       </c>
       <c r="F74">
-        <v>0.07322657373448321</v>
+        <v>0.03871603383395851</v>
       </c>
       <c r="G74">
-        <v>0.1555131387015719</v>
+        <v>0.1489624284051569</v>
       </c>
       <c r="H74">
-        <v>0.0001328973980685378</v>
+        <v>0.0112710339773041</v>
       </c>
       <c r="I74">
-        <v>0.03826859446764246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.04048628433062187</v>
+      </c>
+      <c r="J74">
+        <v>-0.02005578893781894</v>
+      </c>
+      <c r="K74">
+        <v>0.01649816275463276</v>
+      </c>
+      <c r="L74">
+        <v>0.03205230998372043</v>
+      </c>
+      <c r="M74">
+        <v>0.03637215017118536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>-0.1017785859591733</v>
+        <v>0.09208175706003294</v>
       </c>
       <c r="C75">
-        <v>-0.02053335285187553</v>
+        <v>0.0503402737856864</v>
       </c>
       <c r="D75">
-        <v>0.02995175189096656</v>
+        <v>-0.01048241392509887</v>
       </c>
       <c r="E75">
-        <v>-0.0324849618934047</v>
+        <v>-0.008507640653163092</v>
       </c>
       <c r="F75">
-        <v>-0.05481807405548407</v>
+        <v>0.0257931567188357</v>
       </c>
       <c r="G75">
-        <v>0.1105935175046098</v>
+        <v>0.1176633236873817</v>
       </c>
       <c r="H75">
-        <v>0.0485763849648132</v>
+        <v>0.06828021046463854</v>
       </c>
       <c r="I75">
-        <v>0.06623201618420178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.05275673844034336</v>
+      </c>
+      <c r="J75">
+        <v>-0.0188659085668228</v>
+      </c>
+      <c r="K75">
+        <v>0.04062633208649506</v>
+      </c>
+      <c r="L75">
+        <v>0.002274409391099396</v>
+      </c>
+      <c r="M75">
+        <v>-0.05932001500578274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>-0.1315555719547448</v>
+        <v>0.1009274343233127</v>
       </c>
       <c r="C76">
-        <v>-0.03399376229945358</v>
+        <v>0.07131654807052232</v>
       </c>
       <c r="D76">
-        <v>0.0293911721500499</v>
+        <v>-0.01017519618396527</v>
       </c>
       <c r="E76">
-        <v>-0.03175912636166278</v>
+        <v>0.008784621691217843</v>
       </c>
       <c r="F76">
-        <v>-0.002675024935588508</v>
+        <v>0.06362194623516802</v>
       </c>
       <c r="G76">
-        <v>0.2453112382642889</v>
+        <v>0.218090554447083</v>
       </c>
       <c r="H76">
-        <v>0.01878483602713055</v>
+        <v>0.07090493972229257</v>
       </c>
       <c r="I76">
-        <v>0.07963757643907785</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.01980514297146293</v>
+      </c>
+      <c r="J76">
+        <v>-0.06726121619613243</v>
+      </c>
+      <c r="K76">
+        <v>0.04007575669725241</v>
+      </c>
+      <c r="L76">
+        <v>0.002245919206544499</v>
+      </c>
+      <c r="M76">
+        <v>0.1405620583480005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>-0.07879725457577788</v>
+        <v>0.07331847786956565</v>
       </c>
       <c r="C77">
-        <v>-0.0422488498602616</v>
+        <v>0.02385385160747486</v>
       </c>
       <c r="D77">
-        <v>-0.0262551911621297</v>
+        <v>-0.006237645300134357</v>
       </c>
       <c r="E77">
-        <v>0.3627165487640575</v>
+        <v>0.05217276745903326</v>
       </c>
       <c r="F77">
-        <v>-0.6571535659373279</v>
+        <v>-0.4963401357708527</v>
       </c>
       <c r="G77">
-        <v>-0.04443065500164766</v>
+        <v>-0.339261433854981</v>
       </c>
       <c r="H77">
-        <v>-0.4210084026185396</v>
+        <v>0.6505248345972705</v>
       </c>
       <c r="I77">
-        <v>-0.1565029587940254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.07735614711215649</v>
+      </c>
+      <c r="J77">
+        <v>0.02705656139605881</v>
+      </c>
+      <c r="K77">
+        <v>0.0873220470394913</v>
+      </c>
+      <c r="L77">
+        <v>-0.000515340149617487</v>
+      </c>
+      <c r="M77">
+        <v>0.1988438241359108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>-0.121170827198725</v>
+        <v>0.1770272865061137</v>
       </c>
       <c r="C78">
-        <v>-0.09187050219424843</v>
+        <v>0.1129254828143787</v>
       </c>
       <c r="D78">
-        <v>0.02449210222753608</v>
+        <v>0.1769533866454549</v>
       </c>
       <c r="E78">
-        <v>0.1486205302817603</v>
+        <v>0.1209347502380325</v>
       </c>
       <c r="F78">
-        <v>0.07816566013833495</v>
+        <v>-0.122147706703143</v>
       </c>
       <c r="G78">
-        <v>-0.04003601486856199</v>
+        <v>-0.1721162887097268</v>
       </c>
       <c r="H78">
-        <v>0.05746186363856891</v>
+        <v>-0.2002193575764819</v>
       </c>
       <c r="I78">
-        <v>-0.07385580079003327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.5894483797605259</v>
+      </c>
+      <c r="J78">
+        <v>-0.02724405198539861</v>
+      </c>
+      <c r="K78">
+        <v>0.5246361363324885</v>
+      </c>
+      <c r="L78">
+        <v>0.105858150369561</v>
+      </c>
+      <c r="M78">
+        <v>0.1110780998783874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>-0.1448032628963648</v>
+        <v>0.1353585136671253</v>
       </c>
       <c r="C79">
-        <v>-0.05516986401193465</v>
+        <v>0.0755170455505326</v>
       </c>
       <c r="D79">
-        <v>0.03392603759458146</v>
+        <v>-0.005107182875187287</v>
       </c>
       <c r="E79">
-        <v>-0.05423044347115002</v>
+        <v>0.004733436312210056</v>
       </c>
       <c r="F79">
-        <v>-0.03655807243234842</v>
+        <v>0.008356788977451339</v>
       </c>
       <c r="G79">
-        <v>0.1628287739605896</v>
+        <v>0.1751336291515375</v>
       </c>
       <c r="H79">
-        <v>0.05270870730136049</v>
+        <v>0.07613023685329529</v>
       </c>
       <c r="I79">
-        <v>0.03886123219917097</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.007265408039854161</v>
+      </c>
+      <c r="J79">
+        <v>-0.06599248664451204</v>
+      </c>
+      <c r="K79">
+        <v>-0.02117127327058552</v>
+      </c>
+      <c r="L79">
+        <v>0.03397824518708803</v>
+      </c>
+      <c r="M79">
+        <v>0.007208339159061594</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>-0.01636302871449298</v>
+        <v>0.0402975981544653</v>
       </c>
       <c r="C80">
-        <v>0.003409391222666136</v>
+        <v>0.01548663998218357</v>
       </c>
       <c r="D80">
-        <v>-0.01434454425555595</v>
+        <v>-0.05223650582541109</v>
       </c>
       <c r="E80">
-        <v>-0.002062168702974022</v>
+        <v>0.0006556962499689703</v>
       </c>
       <c r="F80">
-        <v>0.03894300927876967</v>
+        <v>-0.006627336914114512</v>
       </c>
       <c r="G80">
-        <v>0.007362626750476852</v>
+        <v>0.0008081853177263386</v>
       </c>
       <c r="H80">
-        <v>-0.04952273706379597</v>
+        <v>-0.09773989516726186</v>
       </c>
       <c r="I80">
-        <v>0.04683121308659569</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.02970934212718904</v>
+      </c>
+      <c r="J80">
+        <v>0.001394145071702453</v>
+      </c>
+      <c r="K80">
+        <v>-0.001645968876461601</v>
+      </c>
+      <c r="L80">
+        <v>0.01046062095427515</v>
+      </c>
+      <c r="M80">
+        <v>-0.04950030793378205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>-0.1170099242365811</v>
+        <v>0.1213521333340486</v>
       </c>
       <c r="C81">
-        <v>-0.04392329488706308</v>
+        <v>0.05149777272764715</v>
       </c>
       <c r="D81">
-        <v>0.04116815508484838</v>
+        <v>-0.003990231750731054</v>
       </c>
       <c r="E81">
-        <v>-0.04301000714187387</v>
+        <v>0.005790557024454381</v>
       </c>
       <c r="F81">
-        <v>-0.01212589513069673</v>
+        <v>-0.002459138242477365</v>
       </c>
       <c r="G81">
-        <v>0.1053620553458976</v>
+        <v>0.1768081892928277</v>
       </c>
       <c r="H81">
-        <v>0.01256010122622256</v>
+        <v>0.03794493170266561</v>
       </c>
       <c r="I81">
-        <v>0.0345780446716687</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.008832863886730513</v>
+      </c>
+      <c r="J81">
+        <v>0.005306124597498706</v>
+      </c>
+      <c r="K81">
+        <v>0.01373633427613522</v>
+      </c>
+      <c r="L81">
+        <v>-0.01420565336190202</v>
+      </c>
+      <c r="M81">
+        <v>-0.03508429361640984</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>-0.1112123976242025</v>
+        <v>0.1168391355011761</v>
       </c>
       <c r="C82">
-        <v>-0.03480753792837258</v>
+        <v>0.0536795098018835</v>
       </c>
       <c r="D82">
-        <v>0.06506359405254031</v>
+        <v>-0.02420436593758414</v>
       </c>
       <c r="E82">
-        <v>-0.09900984888805477</v>
+        <v>-0.0008258492798681484</v>
       </c>
       <c r="F82">
-        <v>-0.05080156375605161</v>
+        <v>0.04145860807835695</v>
       </c>
       <c r="G82">
-        <v>0.2691212964622626</v>
+        <v>0.247081128598433</v>
       </c>
       <c r="H82">
-        <v>0.07100604153845064</v>
+        <v>0.07266536526428867</v>
       </c>
       <c r="I82">
-        <v>-0.002623331327718239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.0457886683840981</v>
+      </c>
+      <c r="J82">
+        <v>0.01270230159317091</v>
+      </c>
+      <c r="K82">
+        <v>-0.04591080155232802</v>
+      </c>
+      <c r="L82">
+        <v>0.03586642409405194</v>
+      </c>
+      <c r="M82">
+        <v>0.00723395526100746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>-0.05000710381325706</v>
+        <v>0.06931774275872972</v>
       </c>
       <c r="C83">
-        <v>-0.03287085177626099</v>
+        <v>0.0594901474598167</v>
       </c>
       <c r="D83">
-        <v>0.0343394993808549</v>
+        <v>-0.00637311345522531</v>
       </c>
       <c r="E83">
-        <v>-0.01501249875666543</v>
+        <v>0.01758579305242088</v>
       </c>
       <c r="F83">
-        <v>-0.02062791067853711</v>
+        <v>0.003285185474056397</v>
       </c>
       <c r="G83">
-        <v>-0.09607722921719604</v>
+        <v>-0.007821769365600533</v>
       </c>
       <c r="H83">
-        <v>0.05146443893425991</v>
+        <v>0.03106505518886379</v>
       </c>
       <c r="I83">
-        <v>-0.0537006106424216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.002868914062500966</v>
+      </c>
+      <c r="J83">
+        <v>0.03814464484756577</v>
+      </c>
+      <c r="K83">
+        <v>-0.1502859207076548</v>
+      </c>
+      <c r="L83">
+        <v>-0.06807645311522861</v>
+      </c>
+      <c r="M83">
+        <v>-0.09423291372922583</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>-0.05402502890267028</v>
+        <v>0.04136997666022321</v>
       </c>
       <c r="C84">
-        <v>-0.02763431762325586</v>
+        <v>-0.02246353004212846</v>
       </c>
       <c r="D84">
-        <v>-0.01568180315447198</v>
+        <v>-0.0007189973383408485</v>
       </c>
       <c r="E84">
-        <v>-0.01090221142630515</v>
+        <v>-0.03137091305285141</v>
       </c>
       <c r="F84">
-        <v>0.1215590745805923</v>
+        <v>-0.02981126165350182</v>
       </c>
       <c r="G84">
-        <v>0.01137216229888502</v>
+        <v>-0.1252162009051895</v>
       </c>
       <c r="H84">
-        <v>0.07102823711906842</v>
+        <v>-0.2622747166986489</v>
       </c>
       <c r="I84">
-        <v>-0.03478110084801268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1267772449951667</v>
+      </c>
+      <c r="J84">
+        <v>0.1436119728736844</v>
+      </c>
+      <c r="K84">
+        <v>-0.2320465574333112</v>
+      </c>
+      <c r="L84">
+        <v>0.2350007652622983</v>
+      </c>
+      <c r="M84">
+        <v>0.3773209140551428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>-0.07928833654333678</v>
+        <v>0.1073890608368261</v>
       </c>
       <c r="C85">
-        <v>-0.04003156818050331</v>
+        <v>0.05291609374023854</v>
       </c>
       <c r="D85">
-        <v>0.05918404781498836</v>
+        <v>-0.01797961564269417</v>
       </c>
       <c r="E85">
-        <v>-0.02324489294170288</v>
+        <v>0.03399417213954251</v>
       </c>
       <c r="F85">
-        <v>-0.01238489765185905</v>
+        <v>0.007260539197122761</v>
       </c>
       <c r="G85">
-        <v>0.1820617262699427</v>
+        <v>0.1825798048350978</v>
       </c>
       <c r="H85">
-        <v>0.002967522742795632</v>
+        <v>0.06215984151771951</v>
       </c>
       <c r="I85">
-        <v>0.05183145211423284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.01115369418252173</v>
+      </c>
+      <c r="J85">
+        <v>-0.06180448036611479</v>
+      </c>
+      <c r="K85">
+        <v>0.01101864762031358</v>
+      </c>
+      <c r="L85">
+        <v>0.05863314178070446</v>
+      </c>
+      <c r="M85">
+        <v>-0.0002874900452855221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>-0.03858653972479258</v>
+        <v>0.07346020916306897</v>
       </c>
       <c r="C86">
-        <v>-0.0488442937379825</v>
+        <v>0.02672728311061983</v>
       </c>
       <c r="D86">
-        <v>0.004264379009775809</v>
+        <v>0.007380635806493055</v>
       </c>
       <c r="E86">
-        <v>0.05028068247284821</v>
+        <v>0.04109924258361769</v>
       </c>
       <c r="F86">
-        <v>-0.0156577926166549</v>
+        <v>-0.08336208206049858</v>
       </c>
       <c r="G86">
-        <v>-0.03624685881837356</v>
+        <v>-0.1178675052222847</v>
       </c>
       <c r="H86">
-        <v>-0.08547824085855961</v>
+        <v>-0.152613711754487</v>
       </c>
       <c r="I86">
-        <v>0.08825141868915214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1202301894257709</v>
+      </c>
+      <c r="J86">
+        <v>0.1132860234221265</v>
+      </c>
+      <c r="K86">
+        <v>-0.233251120995405</v>
+      </c>
+      <c r="L86">
+        <v>0.4757847943865788</v>
+      </c>
+      <c r="M86">
+        <v>-0.1385746599145223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>-0.09283249114025158</v>
+        <v>0.1130558578591963</v>
       </c>
       <c r="C87">
-        <v>-0.07099800072156288</v>
+        <v>0.06960006175704514</v>
       </c>
       <c r="D87">
-        <v>0.02189229553087657</v>
+        <v>0.0335640969717825</v>
       </c>
       <c r="E87">
-        <v>0.1607107843671686</v>
+        <v>0.03251537793343139</v>
       </c>
       <c r="F87">
-        <v>-0.1092152780130738</v>
+        <v>-0.162663778243725</v>
       </c>
       <c r="G87">
-        <v>-0.01160278552725134</v>
+        <v>-0.1261688324864411</v>
       </c>
       <c r="H87">
-        <v>-0.07716079822783288</v>
+        <v>0.08869447402641634</v>
       </c>
       <c r="I87">
-        <v>-0.09541800589597556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.03413754708112988</v>
+      </c>
+      <c r="J87">
+        <v>0.03394560345467548</v>
+      </c>
+      <c r="K87">
+        <v>-0.08622003857887314</v>
+      </c>
+      <c r="L87">
+        <v>-0.02328237009887633</v>
+      </c>
+      <c r="M87">
+        <v>0.07371315691095034</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>-0.04649394433416505</v>
+        <v>0.05776728303493608</v>
       </c>
       <c r="C88">
-        <v>-0.0389963860692974</v>
+        <v>0.0534676928111436</v>
       </c>
       <c r="D88">
-        <v>0.01976327108671057</v>
+        <v>-0.03062754556586671</v>
       </c>
       <c r="E88">
-        <v>0.003428951738136875</v>
+        <v>0.01801318842029548</v>
       </c>
       <c r="F88">
-        <v>0.002802286077210255</v>
+        <v>-0.02474574362471162</v>
       </c>
       <c r="G88">
-        <v>-0.0220187793828266</v>
+        <v>0.02471919344666241</v>
       </c>
       <c r="H88">
-        <v>0.001225786662751433</v>
+        <v>-0.03397418785331307</v>
       </c>
       <c r="I88">
-        <v>-0.04146755631073384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.02844357681206023</v>
+      </c>
+      <c r="J88">
+        <v>0.02980680020280868</v>
+      </c>
+      <c r="K88">
+        <v>-0.02078461055950549</v>
+      </c>
+      <c r="L88">
+        <v>-0.006174511178537596</v>
+      </c>
+      <c r="M88">
+        <v>-0.02230918417615617</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>-0.1740954664239762</v>
+        <v>0.2194728973370017</v>
       </c>
       <c r="C89">
-        <v>0.3153611603496315</v>
+        <v>-0.3534872221931249</v>
       </c>
       <c r="D89">
-        <v>0.07010121174747001</v>
+        <v>0.04388092558966276</v>
       </c>
       <c r="E89">
-        <v>0.08702528097353668</v>
+        <v>0.08556506227469578</v>
       </c>
       <c r="F89">
-        <v>0.006070321732700846</v>
+        <v>-0.006848900634722041</v>
       </c>
       <c r="G89">
-        <v>-0.03306077567658312</v>
+        <v>0.00656339462810506</v>
       </c>
       <c r="H89">
-        <v>0.02741912920197355</v>
+        <v>-0.02993847544019534</v>
       </c>
       <c r="I89">
-        <v>0.02053153759083156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.007171965181204795</v>
+      </c>
+      <c r="J89">
+        <v>0.06259811553316025</v>
+      </c>
+      <c r="K89">
+        <v>0.03381722040814757</v>
+      </c>
+      <c r="L89">
+        <v>-0.08873680189911196</v>
+      </c>
+      <c r="M89">
+        <v>-0.07369381427759493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>-0.1301464928904495</v>
+        <v>0.1497508939550266</v>
       </c>
       <c r="C90">
-        <v>0.2711379530459975</v>
+        <v>-0.267248633967844</v>
       </c>
       <c r="D90">
-        <v>-0.0002422832287247657</v>
+        <v>-0.005313626065878008</v>
       </c>
       <c r="E90">
-        <v>0.06528146650540879</v>
+        <v>0.02106086881865763</v>
       </c>
       <c r="F90">
-        <v>-0.001916775906282385</v>
+        <v>-0.02931384822906421</v>
       </c>
       <c r="G90">
-        <v>-0.02445743721953564</v>
+        <v>-0.01842645490434016</v>
       </c>
       <c r="H90">
-        <v>-0.03960708851494791</v>
+        <v>-0.01944372602280076</v>
       </c>
       <c r="I90">
-        <v>-0.07231450001993583</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.05243603611789474</v>
+      </c>
+      <c r="J90">
+        <v>0.02225267409261971</v>
+      </c>
+      <c r="K90">
+        <v>0.001277490773235287</v>
+      </c>
+      <c r="L90">
+        <v>-0.009943477678960207</v>
+      </c>
+      <c r="M90">
+        <v>0.03968987067677954</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>-0.08455021031282911</v>
+        <v>0.07605151250375572</v>
       </c>
       <c r="C91">
-        <v>-0.03280288226242623</v>
+        <v>0.05136117207346079</v>
       </c>
       <c r="D91">
-        <v>0.01883083684979595</v>
+        <v>0.008608303647558319</v>
       </c>
       <c r="E91">
-        <v>-0.00416634617243489</v>
+        <v>0.003618937611648872</v>
       </c>
       <c r="F91">
-        <v>-0.004606690477782295</v>
+        <v>0.02088829903402626</v>
       </c>
       <c r="G91">
-        <v>0.1127107623892785</v>
+        <v>0.1002988647685855</v>
       </c>
       <c r="H91">
-        <v>0.02373488208520595</v>
+        <v>0.04191786284920946</v>
       </c>
       <c r="I91">
-        <v>0.05130633091740804</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.02179936890866524</v>
+      </c>
+      <c r="J91">
+        <v>-0.007981727194024161</v>
+      </c>
+      <c r="K91">
+        <v>0.05764906334085768</v>
+      </c>
+      <c r="L91">
+        <v>-0.02357462126373112</v>
+      </c>
+      <c r="M91">
+        <v>0.006895535927690892</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>-0.1510633876025244</v>
+        <v>0.1695349778953951</v>
       </c>
       <c r="C92">
-        <v>0.3129358172143714</v>
+        <v>-0.3069946700648563</v>
       </c>
       <c r="D92">
-        <v>0.04553081987054425</v>
+        <v>0.0281849374791894</v>
       </c>
       <c r="E92">
-        <v>0.0232841409520164</v>
+        <v>0.04968568339736411</v>
       </c>
       <c r="F92">
-        <v>0.0682088072076745</v>
+        <v>0.0009830134475121261</v>
       </c>
       <c r="G92">
-        <v>-0.01601191605514991</v>
+        <v>0.03078770859269091</v>
       </c>
       <c r="H92">
-        <v>0.04042038478040041</v>
+        <v>-0.03434043181352006</v>
       </c>
       <c r="I92">
-        <v>0.002778232795014393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.0141948516609293</v>
+      </c>
+      <c r="J92">
+        <v>0.0236491453630395</v>
+      </c>
+      <c r="K92">
+        <v>0.01675690990710354</v>
+      </c>
+      <c r="L92">
+        <v>0.0002709509185658671</v>
+      </c>
+      <c r="M92">
+        <v>-0.01846311003098554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>-0.1424148576209056</v>
+        <v>0.165138004049181</v>
       </c>
       <c r="C93">
-        <v>0.247256481631758</v>
+        <v>-0.2876029980908368</v>
       </c>
       <c r="D93">
-        <v>0.01905513716428343</v>
+        <v>-0.02686024675572099</v>
       </c>
       <c r="E93">
-        <v>0.02705859108075747</v>
+        <v>0.006285798927944154</v>
       </c>
       <c r="F93">
-        <v>0.006327708033973149</v>
+        <v>-0.01088356240790985</v>
       </c>
       <c r="G93">
-        <v>-0.05488455348194246</v>
+        <v>-0.0001147899729519484</v>
       </c>
       <c r="H93">
-        <v>-0.003230897377013827</v>
+        <v>-0.01952354859321052</v>
       </c>
       <c r="I93">
-        <v>-0.02786206528980269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.01972736566222654</v>
+      </c>
+      <c r="J93">
+        <v>0.01507929551487146</v>
+      </c>
+      <c r="K93">
+        <v>-0.05930514840570299</v>
+      </c>
+      <c r="L93">
+        <v>0.005676906499125244</v>
+      </c>
+      <c r="M93">
+        <v>0.007187997013951502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>-0.08875561132390984</v>
+        <v>0.10628617402263</v>
       </c>
       <c r="C94">
-        <v>-0.0648805166864197</v>
+        <v>0.07754923838723947</v>
       </c>
       <c r="D94">
-        <v>0.02230948280708339</v>
+        <v>0.01083994215103896</v>
       </c>
       <c r="E94">
-        <v>-0.004542119061924007</v>
+        <v>0.02125190862479237</v>
       </c>
       <c r="F94">
-        <v>-0.01827896138576999</v>
+        <v>0.04298947759918255</v>
       </c>
       <c r="G94">
-        <v>0.152561342693531</v>
+        <v>0.1267990588436693</v>
       </c>
       <c r="H94">
-        <v>0.07071300800970189</v>
+        <v>0.02984241279187155</v>
       </c>
       <c r="I94">
-        <v>0.1061613148361538</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.02741326009744965</v>
+      </c>
+      <c r="J94">
+        <v>-0.01937874729194555</v>
+      </c>
+      <c r="K94">
+        <v>0.03900098227452969</v>
+      </c>
+      <c r="L94">
+        <v>-0.009695350342923436</v>
+      </c>
+      <c r="M94">
+        <v>-0.05272457548624715</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>-0.09877004723817387</v>
+        <v>0.1362834365219828</v>
       </c>
       <c r="C95">
-        <v>-0.09644746608560947</v>
+        <v>0.07598128186861891</v>
       </c>
       <c r="D95">
-        <v>0.09077623746904184</v>
+        <v>0.007569614376188913</v>
       </c>
       <c r="E95">
-        <v>0.02528448164432625</v>
+        <v>0.0675419306623964</v>
       </c>
       <c r="F95">
-        <v>0.04072471955719283</v>
+        <v>-0.06392410074467172</v>
       </c>
       <c r="G95">
-        <v>-0.01161080811057611</v>
+        <v>-0.1584503980512613</v>
       </c>
       <c r="H95">
-        <v>-0.04409763116939058</v>
+        <v>-0.153215987357547</v>
       </c>
       <c r="I95">
-        <v>-0.04566792339982223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.1130069934383297</v>
+      </c>
+      <c r="J95">
+        <v>0.0389237516100622</v>
+      </c>
+      <c r="K95">
+        <v>-0.1107514762090439</v>
+      </c>
+      <c r="L95">
+        <v>0.1885135204192626</v>
+      </c>
+      <c r="M95">
+        <v>-0.261589196256387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>-0.3123638338970759</v>
+        <v>0.1723892042195632</v>
       </c>
       <c r="C97">
-        <v>-0.06106080479372658</v>
+        <v>0.007409929746502708</v>
       </c>
       <c r="D97">
-        <v>-0.8712759861600984</v>
+        <v>0.1029104730620654</v>
       </c>
       <c r="E97">
-        <v>-0.1318030635125961</v>
+        <v>-0.9357961223454987</v>
       </c>
       <c r="F97">
-        <v>0.04772878458093759</v>
+        <v>-0.05639076566090716</v>
       </c>
       <c r="G97">
-        <v>-0.08337199915927195</v>
+        <v>-0.06764606732620744</v>
       </c>
       <c r="H97">
-        <v>-0.05089592857879611</v>
+        <v>-0.04420450222202562</v>
       </c>
       <c r="I97">
-        <v>0.002662421498996241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.00252647571002895</v>
+      </c>
+      <c r="J97">
+        <v>0.06471036235062756</v>
+      </c>
+      <c r="K97">
+        <v>0.05803535414856421</v>
+      </c>
+      <c r="L97">
+        <v>-0.01034339145821992</v>
+      </c>
+      <c r="M97">
+        <v>-0.01913602015197147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>-0.259182081579207</v>
+        <v>0.2623891343829967</v>
       </c>
       <c r="C98">
-        <v>-0.1008039827416504</v>
+        <v>0.1223465628201837</v>
       </c>
       <c r="D98">
-        <v>0.1659951654758051</v>
+        <v>-0.01941556247687791</v>
       </c>
       <c r="E98">
-        <v>-0.3005801772435406</v>
+        <v>0.006850215426134115</v>
       </c>
       <c r="F98">
-        <v>0.01744652031542521</v>
+        <v>0.4067162652396744</v>
       </c>
       <c r="G98">
-        <v>-0.5348787640065645</v>
+        <v>-0.3220821022354693</v>
       </c>
       <c r="H98">
-        <v>0.2790796499657033</v>
+        <v>0.1223484406005623</v>
       </c>
       <c r="I98">
-        <v>-0.1733631997469973</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.3891543015239725</v>
+      </c>
+      <c r="J98">
+        <v>-0.01431895059969102</v>
+      </c>
+      <c r="K98">
+        <v>-0.3121904059795036</v>
+      </c>
+      <c r="L98">
+        <v>-0.4502640916975554</v>
+      </c>
+      <c r="M98">
+        <v>0.08322360872725135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>-0.05976464917018257</v>
+        <v>0.07242736797203764</v>
       </c>
       <c r="C99">
-        <v>-0.05321653431575959</v>
+        <v>0.05713345805198282</v>
       </c>
       <c r="D99">
-        <v>-0.02925898774926459</v>
+        <v>0.0232637767980304</v>
       </c>
       <c r="E99">
-        <v>0.02326477009815127</v>
+        <v>0.0127608984516017</v>
       </c>
       <c r="F99">
-        <v>-0.5808240179984687</v>
+        <v>0.0007851783740082841</v>
       </c>
       <c r="G99">
-        <v>-0.08988062252792348</v>
+        <v>0.02531373320918713</v>
       </c>
       <c r="H99">
-        <v>0.5945693704208073</v>
+        <v>0.2894333607324331</v>
       </c>
       <c r="I99">
-        <v>0.3647694589379078</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.172001979078055</v>
+      </c>
+      <c r="J99">
+        <v>0.2048798830971306</v>
+      </c>
+      <c r="K99">
+        <v>-0.01274259874839903</v>
+      </c>
+      <c r="L99">
+        <v>0.05207177558217245</v>
+      </c>
+      <c r="M99">
+        <v>-0.6420674896663698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>-0.04571492200830783</v>
+        <v>0.0445817240635254</v>
       </c>
       <c r="C101">
-        <v>-0.01027008657056526</v>
+        <v>0.0226221181521849</v>
       </c>
       <c r="D101">
-        <v>0.008840567019668621</v>
+        <v>-0.0009411301522210665</v>
       </c>
       <c r="E101">
-        <v>0.02821837872145209</v>
+        <v>0.0189083988581158</v>
       </c>
       <c r="F101">
-        <v>0.03829094137169385</v>
+        <v>-0.0459893002977511</v>
       </c>
       <c r="G101">
-        <v>0.006762210726107698</v>
+        <v>0.05839288781180681</v>
       </c>
       <c r="H101">
-        <v>-0.01918964107434062</v>
+        <v>-0.04038384807319587</v>
       </c>
       <c r="I101">
-        <v>-0.002140290911025587</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.0008092268347658898</v>
+      </c>
+      <c r="J101">
+        <v>-0.02634304690453788</v>
+      </c>
+      <c r="K101">
+        <v>-0.03383782327883353</v>
+      </c>
+      <c r="L101">
+        <v>-0.01874996380172781</v>
+      </c>
+      <c r="M101">
+        <v>0.01255642172420839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
